--- a/DOM_Banner/output/dept0713/Franz Rischard_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Franz Rischard_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Inova Fairfax Hospital, Fall Church, VA; United Therapeutics Corporation, Research Triangle Park, NC; Inova Fairfax Hospital, Fall Church, VA; Mayo Clinic Rochester, Rochester, MN; University of Cincinnati College of Medicine, Cincinnati, OH; Duke University School of Medicine, Durham, NC; University of Arizona College of Medicine, Tuscon, AZ; Houston Methodist Lung Center, Houston Methodist Hospital, Houston, TX; United Therapeutics Corporation, Research Triangle Park, NC; United Therapeutics Corporation, Research Triangle Park, NC; United Therapeutics Corporation, Research Triangle Park, NC; Cedars-Sinai Medical Center, Los Angeles, CA; Inari Medical, Irvine, CA; Brigham and Women’s Hospital, Boston, MA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4295961829</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Inhaled Treprostinil Dosage in Pulmonary Hypertension Associated With Interstitial Lung Disease and Its Effects on Clinical Outcomes</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-02-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Chest</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.chest.2022.09.007</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36115497</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.chest.2022.09.007</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Department of Cardiovascular Medicine, Cleveland Clinic, Cleveland, OH.; Department of Quantitative Health Sciences, Cleveland Clinic, Cleveland, OH.; Department of Quantitative Health Sciences, Cleveland Clinic, Cleveland, OH.; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, MN.; Lerner Research Institute, Cleveland Clinic, Cleveland, OH.; Department of Pulmonary Medicine, Cleveland Clinic, Cleveland, OH.; Department of Cardiovascular Medicine, Cleveland Clinic, Cleveland, OH.; Department of Medicine &amp; Environmental Medicine, New York University Grossman School of Medicine, New York, NY.; Division of Allergy, Pulmonary and Critical Care Medicine, Vanderbilt University Medical Center, Nashville, TN.; Division of Pulmonary, Critical Care, and Sleep Medicine, Tufts Medical Center, Boston, MA.; Perkin Heart Failure Center, Division of Cardiology, Weill Cornell Medicine, New York, NY.; Department of Cardiovascular Medicine, Cleveland Clinic, Cleveland, OH.; Department of Cardiovascular Medicine, Cleveland Clinic, Cleveland, OH.; Department of Cardiovascular Medicine, Cleveland Clinic, Cleveland, OH.; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, AZ.; Department of Pediatrics and Medicine, Columbia University, New York, NY.; Department of Cardiovascular and Metabolic Sciences, Cleveland Clinic, Cleveland, OH.; Department of Cardiovascular Medicine, Cleveland Clinic, Cleveland, OH.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4323347839</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Iron deficiency in pulmonary vascular disease: pathophysiological and clinical implications</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-03-05</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>European Heart Journal</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Oxford University Press</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/eurheartj/ehad149</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
       <c r="M3" t="inlineStr">
         <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36879444</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/eurheartj/ehad149</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Department of Cardiovascular Medicine Mayo Clinic Rochester Minnesota USA; Harvard Medical School Boston Massachusetts USA; Division of Pulmonary and Critical Care Medicine Johns Hopkins University Baltimore Maryland USA; Division of Allergy, Pulmonary and Critical Care Medicine Vanderbilt University Medical Center Nashville Tennessee USA; Division of Pulmonary and Critical Care Medicine Johns Hopkins University Baltimore Maryland USA; Division of Pulmonary and Critical Care Medicine Johns Hopkins University Baltimore Maryland USA; Perkin Heart Failure Center, Division of Cardiology, Weill Cornell Medicine, New York, New York, USA; Department of Quantitative Health Sciences Cleveland Clinic Cleveland Ohio USA; Department of Cardiovascular Medicine Cleveland Clinic Cleveland Ohio USA; Department of Cardiovascular Medicine Cleveland Clinic Cleveland Ohio USA; Division of Pulmonary, Critical Care, and Sleep Medicine Tufts Medical Center Boston Massachusetts USA; Department of Pediatrics and Medicine Columbia University New York New York USA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4313443279</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Acute vasoreactivity testing during right heart catheterization in chronic thromboembolic pulmonary hypertension: Results from the pulmonary vascular disease phenomics study</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Pulmonary circulation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>SAGE Publishing</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/pul2.12181</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>cc-by-nc</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36618713</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/pul2.12181</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -688,80 +708,85 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Franz Rischard, Roberto Bernardo, Rebecca Vanderpool, Deborah Kwon, Tushar Acharya, Margaret M. Park, Austin Katrynuik, Michael Insel, Saad Kubba, Roberto Badagliacca, A. Brett Larive, Robert Naeije, Joe G.N. Garcia, Gerald J. Beck, Serpil C. Erzurum, Robert P. Frantz, Paul M. Hassoun, Anna R. Hemnes, Nicholas S. Hill, Evelyn M. Horn, Jane A. Leopold, Erika B. Rosenzweig, W.H. Wilson Tang, Jennifer Wilcox</t>
+          <t>Jordan Elliott, Nainika Menakuru, Kellan Juliet Martin, Farbod Rahaghi, Franz Rischard, Rebecca Vanderpool</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386407374</t>
+          <t>Division of Translational and Regenerative Medicine University of Arizona Tucson AZ USA; Division of Translational and Regenerative Medicine University of Arizona Tucson AZ USA; Division of Translational and Regenerative Medicine University of Arizona Tucson AZ USA; Pulmonary and Critical Care Brigham and Women’s Hospital Boston MA USA; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine University of Arizona Tucson AZ USA; Division of Cardiovascular Medicine, College of Medicine The Ohio State University Columbus OH USA; Division of Translational and Regenerative Medicine University of Arizona Tucson AZ USA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Classification and Predictors of Right Ventricular Functional Recovery in Pulmonary Arterial Hypertension</t>
+          <t>https://openalex.org/W4387473487</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>iCPET Calculator: A Web‐Based Application to Standardize the Calculation of Alpha Distensibility in Patients With Pulmonary Arterial Hypertension</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Circulation: Heart Failure</t>
+          <t>2023-10-17</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>Journal of the American Heart Association</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1161/circheartfailure.123.010555</t>
+          <t>Wiley</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1161/jaha.123.029667</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by-nc-nd</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="M5" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37664964</t>
-        </is>
-      </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1161/circheartfailure.123.010555</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37815026</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1161/jaha.123.029667</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -770,80 +795,85 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Jordan Elliott, Nainika Menakuru, Kellan Juliet Martin, Farbod Rahaghi, Franz Rischard, Rebecca Vanderpool</t>
+          <t>Franz Rischard, Roberto Bernardo, Rebecca Vanderpool, Deborah Kwon, Tushar Acharya, Margaret M. Park, Austin Katrynuik, Michael Insel, Saad Kubba, Roberto Badagliacca, A. Brett Larive, Robert Naeije, Joe G.N. Garcia, Gerald J. Beck, Serpil C. Erzurum, Robert P. Frantz, Paul M. Hassoun, Anna R. Hemnes, Nicholas S. Hill, Evelyn M. Horn, Jane A. Leopold, Erika B. Rosenzweig, W.H. Wilson Tang, Jennifer Wilcox</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387473487</t>
+          <t>Division of Pulmonary, Allergy, Critical Care and Sleep Medicine (F.P.R., M.I.), University of Arizona, Tuscon.; Division of Pulmonary, Critical Care and Sleep Medicine, University of Oklahoma Health Sciences Center, Oklahoma City (R.J.B.).; Division of Cardiovascular Medicine, The Ohio State University, Columbus (R.R.V.).; Department of Cardiovascular Medicine (D.H.K., M.M.P., W.H.W.T.), Cleveland Clinic, Cleveland, OH.; Divison of Cardiology (T.A., S.K.), University of Arizona, Tuscon.; Department of Cardiovascular Medicine (D.H.K., M.M.P., W.H.W.T.), Cleveland Clinic, Cleveland, OH.; Department of Medicine (A.K., J.G.N.G.), University of Arizona, Tuscon.; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine (F.P.R., M.I.), University of Arizona, Tuscon.; Divison of Cardiology (T.A., S.K.), University of Arizona, Tuscon.; Department of Cardiovascular and Respiratory Science, Sapienza University of Rome, Italy (R.B.).; Department of Quantitative Health Sciences (A.B.L., G.J.B.), Cleveland Clinic, Cleveland, OH.; Department of Pathophysiology, Free University of Brussels, Belgium (R.N.).; Department of Medicine (A.K., J.G.N.G.), University of Arizona, Tuscon.; Department of Quantitative Health Sciences (A.B.L., G.J.B.), Cleveland Clinic, Cleveland, OH.; Lerner Research Institute (S.C.E.), Cleveland Clinic, Cleveland, OH.; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, MN (R.P.F.).; Division of Pulmonary and Critical Care Medicine, Johns Hopkins University, Baltimore, MD (P.M.H.).; Division of Allergy, Pulmonary and Critical Care Medicine, Vanderbilt University Medical Center, Nashville, TN (A.R.H.).; Division of Pulmonary, Critical Care, and Sleep Medicine, Tufts Medical Center, Boston, MA (N.S.H.).; Division of Cardiology, Perkin Heart Failure Center, Weill Cornell Medicine, New York, NY (E.M.H.).; Division of Cardiovascular Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, MA (J.A.L.).; Department of Pediatrics and Medicine, Columbia University, Vegelos College of Physicians and Surgeons, New York, NY (E.B.R.).; Department of Cardiovascular Medicine (D.H.K., M.M.P., W.H.W.T.), Cleveland Clinic, Cleveland, OH.; Department of Cardiovascular and Metabolic Sciences (J.D.W.), Cleveland Clinic, Cleveland, OH.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>iCPET Calculator: A Web‐Based Application to Standardize the Calculation of Alpha Distensibility in Patients With Pulmonary Arterial Hypertension</t>
+          <t>https://openalex.org/W4386407374</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2023-10-17</t>
+          <t>Classification and Predictors of Right Ventricular Functional Recovery in Pulmonary Arterial Hypertension</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Journal of the American Heart Association</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Wiley</t>
+          <t>Circulation: Heart Failure</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1161/jaha.123.029667</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>cc-by-nc-nd</t>
+          <t>https://doi.org/10.1161/circheartfailure.123.010555</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37815026</t>
-        </is>
-      </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1161/jaha.123.029667</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37664964</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1161/circheartfailure.123.010555</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,39 +887,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Division of Pulmonary, Critical Care and Sleep Medicine, University of Florida, Gainesville, Florida, USA; Division of Pulmonary, Critical Care and Sleep Medicine, Tufts Medical Center, Boston, Massachusetts, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Division of Pediatric Cardiology, Department of Pediatrics and Medicine, Columbia University Irving Medical Center, NewYork-Presbyterian Hospital, New York, New York, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Respiratory Institute, Cleveland Clinic, Cleveland, Ohio, USA; Heart, Vascular and Thoracic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Department of Quantitative Health Sciences, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Respiratory Institute, Cleveland Clinic, Cleveland, Ohio, USA; Heart, Vascular and Thoracic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Department of Quantitative Health Sciences, Cleveland Clinic, Cleveland, Ohio, USA; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA; Division of Pulmonary and Critical Care Medicine, Johns Hopkins University, Baltimore, Maryland, USA; Division of Allergy, Pulmonary and Critical Care Medicine, Vanderbilt University Medical Center, Nashville, Tennessee, USA; Perkin Heart Failure Center, Division of Cardiology, Weill Cornell Medicine, New York, New York, USA; Division of Cardiovascular Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, Massachusetts, USA; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, Arizona, USA; Heart, Vascular and Thoracic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Respiratory Institute, Cleveland Clinic, Cleveland, Ohio, USA; Division of Pulmonary, Critical Care and Sleep Medicine, Tufts Medical Center, Boston, Massachusetts, USA; Division of Cardiovascular Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, Massachusetts, USA; ; Division of Cardiovascular Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, Massachusetts, USA; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA; Department of Quantitative Health Sciences, Cleveland Clinic, Cleveland, Ohio, USA; ; Heart, Vascular and Thoracic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Respiratory Institute, Cleveland Clinic, Cleveland, Ohio, USA; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA; Division of Cardiovascular Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, Massachusetts, USA; ; Heart, Vascular and Thoracic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Respiratory Institute, Cleveland Clinic, Cleveland, Ohio, USA; Division of Cardiovascular Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, Massachusetts, USA; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, Arizona, USA; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, Arizona, USA; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, Arizona, USA; Division of Pediatric Cardiology, Department of Pediatrics and Medicine, Columbia University Irving Medical Center, NewYork-Presbyterian Hospital, New York, New York, USA; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, Arizona, USA; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, Arizona, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, Arizona, USA; Department of Quantitative Health Sciences, Cleveland Clinic, Cleveland, Ohio, USA; Division of Cardiovascular Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, Massachusetts, USA; Division of Pulmonary and Critical Care Medicine, Johns Hopkins University, Baltimore, Maryland, USA; Perkin Heart Failure Center, Division of Cardiology, Weill Cornell Medicine, New York, New York, USA; Department of Quantitative Health Sciences, Cleveland Clinic, Cleveland, Ohio, USA; ; Heart, Vascular and Thoracic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Respiratory Institute, Cleveland Clinic, Cleveland, Ohio, USA; Division of Cardiovascular Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, Massachusetts, USA; Heart, Vascular and Thoracic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Respiratory Institute, Cleveland Clinic, Cleveland, Ohio, USA; Heart, Vascular and Thoracic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Respiratory Institute, Cleveland Clinic, Cleveland, Ohio, USA; Division of Cardiovascular Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, Massachusetts, USA; Heart, Vascular and Thoracic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Respiratory Institute, Cleveland Clinic, Cleveland, Ohio, USA; Heart, Vascular and Thoracic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Respiratory Institute, Cleveland Clinic, Cleveland, Ohio, USA; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, Arizona, USA; Heart, Vascular and Thoracic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Respiratory Institute, Cleveland Clinic, Cleveland, Ohio, USA; Heart, Vascular and Thoracic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Respiratory Institute, Cleveland Clinic, Cleveland, Ohio, USA; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA; Division of Cardiovascular Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, Massachusetts, USA; Division of Pulmonary and Critical Care Medicine, Johns Hopkins University, Baltimore, Maryland, USA; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, Arizona, USA; Department of Quantitative Health Sciences, Cleveland Clinic, Cleveland, Ohio, USA; Heart, Vascular and Thoracic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Respiratory Institute, Cleveland Clinic, Cleveland, Ohio, USA; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA; Division of Cardiovascular Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, Massachusetts, USA; Heart, Vascular and Thoracic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Respiratory Institute, Cleveland Clinic, Cleveland, Ohio, USA; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, Arizona, USA; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA; Heart, Vascular and Thoracic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Respiratory Institute, Cleveland Clinic, Cleveland, Ohio, USA; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, Arizona, USA; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA; ; Division of Cardiovascular Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, Massachusetts, USA; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA; Division of Cardiovascular Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, Massachusetts, USA; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA; Department of Quantitative Health Sciences, Cleveland Clinic, Cleveland, Ohio, USA; Department of Quantitative Health Sciences, Cleveland Clinic, Cleveland, Ohio, USA; Heart, Vascular and Thoracic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Respiratory Institute, Cleveland Clinic, Cleveland, Ohio, USA; ; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA; Heart, Vascular and Thoracic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Respiratory Institute, Cleveland Clinic, Cleveland, Ohio, USA; Department of Quantitative Health Sciences, Cleveland Clinic, Cleveland, Ohio, USA; ; Heart, Vascular and Thoracic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Respiratory Institute, Cleveland Clinic, Cleveland, Ohio, USA; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, Arizona, USA; Division of Cardiovascular Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, Massachusetts, USA; ; Division of Cardiovascular Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, Massachusetts, USA; ; ; Heart, Vascular and Thoracic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Respiratory Institute, Cleveland Clinic, Cleveland, Ohio, USA; Division of Cardiovascular Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, Massachusetts, USA; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, Arizona, USA; Department of Quantitative Health Sciences, Cleveland Clinic, Cleveland, Ohio, USA; Perkin Heart Failure Center, Division of Cardiology, Weill Cornell Medicine, New York, New York, USA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4388623071</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Sleep-Related Hypoxia, Right Ventricular Dysfunction, and Survival in Patients With Group 1 Pulmonary Arterial Hypertension</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-11-01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Journal of the American College of Cardiology</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jacc.2023.09.806</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -897,35 +927,40 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37968017</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jacc.2023.09.806</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,75 +974,80 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Division of Cardiovascular Medicine, The Ohio State University, Columbus, Ohio and; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine and; Divison of Cardiology, University of Arizona, Tucson, Arizona; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine and</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4317772724</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>The Acute Effects of Prostacyclin on Right Ventricular Contractility and Pulmonary Artery Coupling</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-04-15</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>American Journal of Respiratory and Critical Care Medicine</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>American Thoracic Society</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/rccm.202210-1861le</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36689755</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/rccm.202210-1861le</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,75 +1061,80 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t xml:space="preserve"> University of Arizona;; Division of Pulmonary, Critical Care and Sleep Medicine, University of Oklahoma Health Sciences Center, Oklahoma City, OK;  The Ohio State University;;  Cleveland Clinic, Cleveland, OH;;  University of Arizona;;  Cleveland Clinic Foundation;;  University of Arizona;;  University of Arizona;;  University of Arizona;;  Sapienza University of Rome;;  Cleveland Clinic Foundation, Cleveland;;  Free University of Brussels;;  University of Arizona;;  Cleveland Clinic Foundation;; Lerner Research Institute, Cleveland Clinic; Department of Cardiovascular Medicine, Mayo Clinic;  Johns Hopkins University;; Division of Allergy, Pulmonary and Critical Care Medicine, Vanderbilt University Medical Center; Division of Pulmonary, Critical Care, and Sleep Medicine, Tufts Medical Center; Perkin Heart Failure Center, Division of Cardiology, Weill Cornell Medicine; Division of Cardiovascular Medicine, Brigham and Women’s Hospital, Harvard Medical School; Department of Pediatrics and Medicine, Columbia University, Vegelos College of Physicians and Surgeons;  Cleveland Clinic;;  Cleveland Clinic Foundation;</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4321018683</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Classification and Predictors of Right Ventricular Functional Recovery in Pulmonary Arterial Hypertension</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-02-16</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>medRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2023.02.15.23285974</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36824981</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2023.02.15.23285974</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1098,80 +1143,85 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Jordan Elliott, Nainika Menakuru, Kellan Juliet Martin, Farbod Rahaghi, Franz Rischard, Rebecca Vanderpool</t>
+          <t>Pieter Martens, Yu Shi, Samar Farha, Serpil C. Erzurum, Anna R. Hemnes, Evelyn M. Horn, Franz Rischard, Erika B. Rosenzweig, Margaret M. Park, Paul M. Hassoun, W.H. Wilson Tang</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4321598368</t>
+          <t>Cleveland Clinic, Cleveland, OH, USA; Cleveland Clinic, Cleveland, OH, USA; Cleveland Clinic, Cleveland, OH, USA; Cleveland Clinic, Cleveland, OH, USA; Cleveland Clinic, Cleveland, OH, USA; Cleveland Clinic, Cleveland, OH, USA; Cleveland Clinic, Cleveland, OH, USA; Cleveland Clinic, Cleveland, OH, USA; Cleveland Clinic, Cleveland, OH, USA; Cleveland Clinic, Cleveland, OH, USA; Cleveland Clinic, Cleveland, OH, USA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>iCPET calculator: a web-based application to standardize the calculation of alpha distensibility in patients with pulmonary arterial hypertension</t>
+          <t>https://openalex.org/W4323039702</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2023-02-22</t>
+          <t>DEFINITION, PREVALENCE AND PATHOPHYSIOLOGIC ROLE OF IRON DEFICIENCY IN PULMONARY VASCULAR DISEASE</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>medRxiv (Cold Spring Harbor Laboratory)</t>
+          <t>2023-03-01</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Cold Spring Harbor Laboratory</t>
+          <t>Journal of the American College of Cardiology</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2023.02.21.23286277</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>cc-by-nc-nd</t>
+          <t>https://doi.org/10.1016/s0735-1097(23)02335-5</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
+          <t>de</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1101/2023.02.21.23286277</t>
-        </is>
-      </c>
       <c r="P10" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/s0735-1097(23)02335-5</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1180,80 +1230,85 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Pieter Martens, Yu Shi, Samar Farha, Serpil C. Erzurum, Anna R. Hemnes, Evelyn M. Horn, Franz Rischard, Erika B. Rosenzweig, Margaret M. Park, Paul M. Hassoun, W.H. Wilson Tang</t>
+          <t>Sei Y. Chung, A. Schweickart, W. Whalen, Conor Willson, Robert P. Frantz, Franz Rischard, Alexandra C. Racanelli, Evelyn M. Horn, PVDOMICS Study Group</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4323039702</t>
+          <t xml:space="preserve">Pulmonary and Critical Care Medicine, Weill Cornell Medicine, New York, NY, United States; Computational Biomedicine, Weill Cornell Medicine, New York, NY, United States; Pulmonary and Critical Care Medicine, Weill Cornell Medicine, New York, NY, United States; Division of Pulmonary and Critical Care, University of Arizona, Tucson, AZ, United States; Cardiovascular Diseases, Mayo Clinic, Rochester, MN, United States; Division of Pulmonary and Critical Care, University of Arizona, Tucson, AZ, United States; Pulmonary and Critical Care Medicine, Weill Cornell Medicine, New York, NY, United States; Cardiology, Weill Cornell Medicine, New York, NY, United States; </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DEFINITION, PREVALENCE AND PATHOPHYSIOLOGIC ROLE OF IRON DEFICIENCY IN PULMONARY VASCULAR DISEASE</t>
+          <t>https://openalex.org/W4367601265</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2023-03-01</t>
+          <t>Fatty Acid Dysregulation Identifies Right Ventricular Dysfunction in Chronic Obstructive Pulmonary Disease (COPD) Patients: A Metabolomic Analysis in the Pulmonary Vascular Disease Phenomics (PVDOMICS) Cohort</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Journal of the American College of Cardiology</t>
+          <t>2023-05-01</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0735-1097(23)02335-5</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a2509</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/s0735-1097(23)02335-5</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a2509</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1262,29 +1317,29 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sei Y. Chung, A. Schweickart, W. Whalen, Conor Willson, Robert P. Frantz, Franz Rischard, Alexandra C. Racanelli, Evelyn M. Horn, PVDOMICS Study Group</t>
+          <t>S. Jothi, Guido Claessen, Michael Insel, Saad Kubba, Erin Howden, S. Ruiz Carmona, Franz Rischard</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4367601265</t>
+          <t>Internal Medicine, Banner University Medical Center, Tucson, AZ, United States; Department of Cardiovascular Sciences, Leuven,  Belgium; Internal Medicine, University of Arizona, Tucson, AZ, United States; University of Arizona Hospital, Tucson, AZ, United States; Baker Heart and Diabetes Institute, Melbourne,  Australia; Baker Heart and Diabetes Institute, Melbourne,  Australia; Division of Pulmonary and Critical Care, University of Arizona, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Fatty Acid Dysregulation Identifies Right Ventricular Dysfunction in Chronic Obstructive Pulmonary Disease (COPD) Patients: A Metabolomic Analysis in the Pulmonary Vascular Disease Phenomics (PVDOMICS) Cohort</t>
+          <t>https://openalex.org/W4367606695</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>Post-acute Sequelae of SARS Co-V2 and Chronic Fatigue/Myalgic Encephalitis Share Similar Pathophysiologic Mechanisms of Exercise Limitation</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>2023-05-01</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1292,12 +1347,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a2509</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a6470</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1307,35 +1362,40 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a2509</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a6470</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1344,29 +1404,29 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>S. Jothi, Guido Claessen, Michael Insel, Saad Kubba, Erin Howden, S. Ruiz Carmona, Franz Rischard</t>
+          <t>B.E. Funke, J.G. Terry, Sangeeta Nair, Jeff Carr, Hui Nian, Barry A. Borlaug, S.C. Erzurum, R.P. Frantz, Gabriele Grünig, Paul M. Hassoun, Evelyn M. Horn, Miriam Jacob, Joan Leopold, Franz Rischard, Anna R. Hemnes, PVDOMICS study group</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4367606695</t>
+          <t xml:space="preserve">Allergy, Pulmonary &amp; Critical Care, Vanderbilt University Medical Center, Nashville, TN, United States; Vanderbilt University Medical Center, Nashville, TN, United States; Vanderbilt University Medical Center, Nashville, TN, United States; Department of Radiology and Radiological Sciences, Vanderbilt University Medical Center, Nashville, TN, United States; Vanderbilt University Medical Center, Nashville, TN, United States; Cardiology, Mayo Clinic, Rochester, MN, United States; Cleveland Clinic Foundation, Cleveland, OH, United States; Cardiovascular Diseases, Mayo Clinic, Rochester, MN, United States; Medicine, NYU Grossman School of Medicine, New York, NY, United States; Div of Pulm and Crit Care, Johns Hopkins Univ School of Med, Baltimore, MD, United States; Weill Cornell Med Ctr, New York, NY, United States; Cardiovascular Medicine, Cleveland Clinic, Cleveland, OH, United States; Cardiovascular Medicine, Brigham and Women''s Hospital, Harvard Medical School, Boston, MA, United States; Division of Pulmonary and Critical Care, University of Arizona, Tucson, AZ, United States; Allergy, Pulmonary &amp; Critical Care, Vanderbilt University Medical Center, Nashville, TN, United States; </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Post-acute Sequelae of SARS Co-V2 and Chronic Fatigue/Myalgic Encephalitis Share Similar Pathophysiologic Mechanisms of Exercise Limitation</t>
+          <t>https://openalex.org/W4367607364</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>Relationship Between Hepatic Fat Content and Pulmonary Vascular Disease Severity in a Subset of the Pvdomics Cohort</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>2023-05-01</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1374,12 +1434,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a6470</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a3741</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1389,35 +1449,40 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a6470</t>
-        </is>
-      </c>
       <c r="P13" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a3741</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1426,80 +1491,85 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>B.E. Funke, J.G. Terry, Sangeeta Nair, Jeff Carr, Hui Nian, Barry A. Borlaug, S.C. Erzurum, R.P. Frantz, Gabriele Grünig, Paul M. Hassoun, Evelyn M. Horn, Miriam Jacob, Joan Leopold, Franz Rischard, Anna R. Hemnes, PVDOMICS study group</t>
+          <t>Alexandra M Janowski, Keeley Ravellette, Michael Insel, Joe G.N. Garcia, Franz Rischard, Rebecca Vanderpool</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4367607364</t>
+          <t>The Ohio State University; Division of Translational and Regenerative Medicine, The University of Arizona, Tucson, AZ; University of Arizona, UNITED STATES; University of Florida, UNITED STATES; University of Arizona, UNITED STATES; The Ohio State University</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Relationship Between Hepatic Fat Content and Pulmonary Vascular Disease Severity in a Subset of the Pvdomics Cohort</t>
+          <t>https://openalex.org/W4385875440</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2023-05-01</t>
+          <t>Advanced Hemodynamic and Cluster Analysis for Identifying Novel RV function subphenotypes in Patients with Pulmonary Hypertension</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-08-15</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>medRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a3741</t>
+          <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1101/2023.08.09.23293912</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by-nc-nd</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a3741</t>
-        </is>
-      </c>
       <c r="P14" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1101/2023.08.09.23293912</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1508,80 +1578,85 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Alexandra M Janowski, Keeley Ravellette, Michael Insel, Joe G.N. Garcia, Franz Rischard, Rebecca Vanderpool</t>
+          <t>Mario Naranjo, Erika B. Rosenzweig, Anna R. Hemnes, Miriam Jacob, Ankit A. Desai, Nicholas S. Hill, A. Brett Larive, J. Emanuel Finet, Jane A. Leopold, Evelyn M. Horn, Robert P. Frantz, Franz Rischard, Serpil C. Erzurum, Gerald J. Beck, Stephen C. Mathai, Paul M. Hassoun</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385875440</t>
+          <t>Division of Pulmonary and Critical Care Medicine, Department of Medicine, Johns Hopkins University, Baltimore, Maryland, USA; Department of Pediatrics and Medicine, Columbia University, New York, New York, USA; Division of Allergy, Pulmonary and Critical Care Medicine, Vanderbilt University Medical Center, Nashville, Tennessee, USA; Department of Cardiovascular Medicine, Cleveland Clinic, Cleveland, Ohio, USA; Department of Medicine, College of Medicine, The University of Arizona, Tucson, Arizona, USA; Division of Pulmonary, Critical Care, and Sleep Medicine, Tufts Medical Center, Boston, Massachusetts, USA; Department of Quantitative Health Sciences, Cleveland Clinic, Cleveland, Ohio, USA; Department of Cardiovascular Medicine, Cleveland Clinic, Cleveland, Ohio, USA; Department of Cardiovascular Medicine, Brigham and Women's Hospital, Harvard University, Boston, Massachusetts, USA; Division of Cardiology, Weill Cornell University, New York, New York, USA; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA; Department of Medicine, College of Medicine, The University of Arizona, Tucson, Arizona, USA; Department of Inflammation and Immunity, Cleveland Clinic, Cleveland, Ohio, USA; Department of Quantitative Health Sciences, Cleveland Clinic, Cleveland, Ohio, USA; Division of Pulmonary and Critical Care Medicine, Department of Medicine, Johns Hopkins University, Baltimore, Maryland, USA; Division of Pulmonary and Critical Care Medicine, Department of Medicine, Johns Hopkins University, Baltimore, Maryland, USA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Advanced Hemodynamic and Cluster Analysis for Identifying Novel RV function subphenotypes in Patients with Pulmonary Hypertension</t>
+          <t>https://openalex.org/W4386053295</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2023-08-15</t>
+          <t>Frequency of acute vasodilator response (AVR) in incident and prevalent patients with pulmonary arterial hypertension: Results from the pulmonary vascular disease phenomics study</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>medRxiv (Cold Spring Harbor Laboratory)</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Cold Spring Harbor Laboratory</t>
+          <t>Pulmonary circulation</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2023.08.09.23293912</t>
+          <t>SAGE Publishing</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>cc-by-nc-nd</t>
+          <t>https://doi.org/10.1002/pul2.12281</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>cc-by-nc</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2023.08.09.23293912</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37614830</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1002/pul2.12281</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1590,80 +1665,85 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Mario Naranjo, Erika B. Rosenzweig, Anna R. Hemnes, Miriam Jacob, Ankit A. Desai, Nicholas S. Hill, A. Brett Larive, J. Emanuel Finet, Jane A. Leopold, Evelyn M. Horn, Robert P. Frantz, Franz Rischard, Serpil C. Erzurum, Gerald J. Beck, Stephen C. Mathai, Paul M. Hassoun</t>
+          <t>Divya Menon, Robert P. Frantz, Franz Rischard, PAUL M HASSOUN, Benjamin R. Gochanour, STEPHEN C MATHAI, NICHOLAS S HILL, ANNA R HEMNES, J. Emanuel Finet, Samar Farha, Gerald J. Beck, Kevin McCarthy, Mitchell A. Olman, Evelyn M. Horn, Gabriele Grünig, Serpil C. Erzurum, Barry A. Borlaug, Hilary M. DuBrock</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386053295</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Frequency of acute vasodilator response (AVR) in incident and prevalent patients with pulmonary arterial hypertension: Results from the pulmonary vascular disease phenomics study</t>
+          <t>https://openalex.org/W4387265780</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>DIFFUSING CAPACITY FOR CARBON MONOXIDE IN PULMONARY VASCULAR DISEASE: INSIGHTS FROM THE PVDOMICS STUDY</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Pulmonary circulation</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>SAGE Publishing</t>
+          <t>Chest</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/pul2.12281</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>cc-by-nc</t>
+          <t>https://doi.org/10.1016/j.chest.2023.07.3859</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>gold</t>
-        </is>
-      </c>
       <c r="K16" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37614830</t>
-        </is>
-      </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/pul2.12281</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.chest.2023.07.3859</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1672,80 +1752,85 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Divya Menon, Robert P. Frantz, Franz Rischard, PAUL M HASSOUN, Benjamin R. Gochanour, STEPHEN C MATHAI, NICHOLAS S HILL, ANNA R HEMNES, J. Emanuel Finet, Samar Farha, Gerald J. Beck, Kevin McCarthy, Mitchell A. Olman, Evelyn M. Horn, Gabriele Grünig, Serpil C. Erzurum, Barry A. Borlaug, Hilary M. DuBrock</t>
+          <t>Ru‐San Tan, Deborah Kwon, Tushar Acharya, Margaret M. Park, Rebecca Vanderpool, Austin Katrynuik, Gerald J. Beck, Robert Frantz, PAUL M HASSOUN, ANNA R HEMNES, NICHOLAS S HILL, Evelyn M. Horn, Jane A. Leopold, Erika B. Rosenzweig, W.H. Wilson Tang, STEPHEN C MATHAI, Stefan L. Zimmerman, Bharath Ambale Venkatesh, Jiwon Kim, Michael P. DiLorenzo, Raymond Y. Kwong, Christopher J. François, EVAN BRITTAIN, Franz Rischard</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387265780</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DIFFUSING CAPACITY FOR CARBON MONOXIDE IN PULMONARY VASCULAR DISEASE: INSIGHTS FROM THE PVDOMICS STUDY</t>
+          <t>https://openalex.org/W4387266294</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>RIGHT VENTRICULAR VOLUME INTER-READER VARIABILITY INCREASES WITH VENTRICULAR DILATION: RESULTS FROM THE PVDOMICS STUDY</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Chest</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.chest.2023.07.3859</t>
-        </is>
-      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1016/j.chest.2023.07.3810</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.chest.2023.07.3859</t>
-        </is>
-      </c>
       <c r="P17" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.chest.2023.07.3810</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1754,80 +1839,85 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Ru‐San Tan, Deborah Kwon, Tushar Acharya, Margaret M. Park, Rebecca Vanderpool, Austin Katrynuik, Gerald J. Beck, Robert Frantz, PAUL M HASSOUN, ANNA R HEMNES, NICHOLAS S HILL, Evelyn M. Horn, Jane A. Leopold, Erika B. Rosenzweig, W.H. Wilson Tang, STEPHEN C MATHAI, Stefan L. Zimmerman, Bharath Ambale Venkatesh, Jiwon Kim, Michael P. DiLorenzo, Raymond Y. Kwong, Christopher J. François, EVAN BRITTAIN, Franz Rischard</t>
+          <t>Cole Uhland, Allison Gibbs, Michael Insel, Saad Kubba, Franz Rischard</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387266294</t>
+          <t>University of Arizona Department of Medicine, Tucson, United States; Legacy Health System, Portland, United States; University of Arizona Division of Pulmonary Critical Care, Tucson, United States; University of Arizona Division of Cardiology, Tucson, United States; University of Arizona Division of Pulmonary Critical Care, Tucson, United States</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>RIGHT VENTRICULAR VOLUME INTER-READER VARIABILITY INCREASES WITH VENTRICULAR DILATION: RESULTS FROM THE PVDOMICS STUDY</t>
+          <t>https://openalex.org/W4387980245</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>Methamphetamine and idiopathic PAH: Similar treatment, similar outcomes</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Chest</t>
+          <t>2023-09-09</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.chest.2023.07.3810</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1183/13993003.congress-2023.pa1204</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.chest.2023.07.3810</t>
-        </is>
-      </c>
       <c r="P18" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1183/13993003.congress-2023.pa1204</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1836,80 +1926,85 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Divya Menon, Robert Frantz, Franz Rischard, PAUL M HASSOUN, Benjamin R. Gochanour, STEPHEN C MATHAI, NICHOLAS S HILL, ANNA R HEMNES, J. Emanuel Finet, Jason K. Lempel, Samar Farha, AARON B WAXMAN, Evelyn M. Horn, Rahul D. Renapurkar, Gabriele Grünig, Serpil C. Erzurum, Barry A. Borlaug, Hilary M. DuBrock</t>
+          <t>Alexandra M Janowski, Keeley Ravellette, Michael Insel, Joe G.N. Garcia, Franz Rischard, Rebecca Vanderpool</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387267800</t>
+          <t>Department of Biomedical Engineering, The Ohio State University, Columbus, OH; Division of Cardiovascular Medicine, The Ohio State University, Columbus, OH; Division of Translational and Regenerative Medicine, The University of Arizona, Tucson, AZ; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona, Tucson, AZ; Center for Inflammation Science and Systems Medicine, University of Florida; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona, Tucson, AZ; Department of Biomedical Engineering, The Ohio State University, Columbus, OH; Division of Cardiovascular Medicine, The Ohio State University, Columbus, OH</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>GROUND-GLASS OPACITIES IN GROUP 1 PULMONARY HYPERTENSION: FINDINGS FROM THE PVDOMICS STUDY</t>
+          <t>https://openalex.org/W4390064662</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>Advanced Hemodynamic and Cluster Analysis for Identifying Novel RV function subphenotypes in Patients with Pulmonary Hypertension</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Chest</t>
+          <t>2023-12-01</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>The Journal of Heart and Lung Transplantation</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.chest.2023.07.3862</t>
-        </is>
-      </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1016/j.healun.2023.12.009</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.chest.2023.07.3862</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/38141893</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.healun.2023.12.009</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1918,80 +2013,85 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Carol Simpson, A.S. Ambade, Robert Harlan, Aurelie Roux, Susan Aja, David R. Graham, Ami A. Shah, Laura K. Hummers, Anna R. Hemnes, Jane A. Leopold, Evelyn M. Horn, Erika B. Rosenzweig, Gabrielle Grunig, Micheala A. Aldred, John Barnard, Suzy Comhair, W.H. Wilson Tang, Megan Griffiths, Franz Rischard, Robert P. Frantz, Serpil C. Erzurum, Gerald J. Beck, Nicholas S. Hill, Stephen C. Mathai, Paul M. Hassoun, Rachel Damico</t>
+          <t>Jordan Elliott, Nainika Menakuru, Kellan Juliet Martin, Farbod Rahaghi, Franz Rischard, Rebecca Vanderpool</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387296302</t>
+          <t xml:space="preserve"> University of Arizona, UNITED STATES;;  University of Arizona, UNITED STATES;; Division of Translational and Regenerative Medicine, University of Arizona;  Brigham and Women's Hospital, Harvard School of Medicine, UNITED STATES;;  University of Arizona, UNITED STATES;; Division of Cardiovascular Medicine, College of Medicine, Ohio State University; Division of Translational and Regenerative Medicine, University of Arizona</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Kynurenine pathway metabolism evolves with development of preclinical and scleroderma-associated pulmonary arterial hypertension</t>
+          <t>https://openalex.org/W4321598368</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2023-11-01</t>
+          <t>iCPET calculator: a web-based application to standardize the calculation of alpha distensibility in patients with pulmonary arterial hypertension</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>American Journal of Physiology-lung Cellular and Molecular Physiology</t>
+          <t>2023-02-22</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>American Physical Society</t>
+          <t>medRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1152/ajplung.00177.2023</t>
+          <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1101/2023.02.21.23286277</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by-nc-nd</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37786941</t>
-        </is>
-      </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1152/ajplung.00177.2023</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1101/2023.02.21.23286277</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2000,42 +2100,42 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Cole Uhland, Allison Gibbs, Michael Insel, Saad Kubba, Franz Rischard</t>
+          <t>Divya Menon, Robert Frantz, Franz Rischard, PAUL M HASSOUN, Benjamin R. Gochanour, STEPHEN C MATHAI, NICHOLAS S HILL, ANNA R HEMNES, J. Emanuel Finet, Jason K. Lempel, Samar Farha, AARON B WAXMAN, Evelyn M. Horn, Rahul D. Renapurkar, Gabriele Grünig, Serpil C. Erzurum, Barry A. Borlaug, Hilary M. DuBrock</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387980245</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Methamphetamine and idiopathic PAH: Similar treatment, similar outcomes</t>
+          <t>https://openalex.org/W4387267800</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2023-09-09</t>
+          <t>GROUND-GLASS OPACITIES IN GROUP 1 PULMONARY HYPERTENSION: FINDINGS FROM THE PVDOMICS STUDY</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Chest</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1183/13993003.congress-2023.pa1204</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1016/j.chest.2023.07.3862</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2045,35 +2145,40 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1183/13993003.congress-2023.pa1204</t>
-        </is>
-      </c>
       <c r="P21" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.chest.2023.07.3862</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2082,42 +2187,42 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Alexandra M Janowski, Keeley Ravellette, Michael Insel, Joe G.N. Garcia, Franz Rischard, Rebecca Vanderpool</t>
+          <t>Carol Simpson, A.S. Ambade, Robert Harlan, Aurelie Roux, Susan Aja, David R. Graham, Ami A. Shah, Laura K. Hummers, Anna R. Hemnes, Jane A. Leopold, Evelyn M. Horn, Erika B. Rosenzweig, Gabrielle Grunig, Micheala A. Aldred, John Barnard, Suzy Comhair, W.H. Wilson Tang, Megan Griffiths, Franz Rischard, Robert P. Frantz, Serpil C. Erzurum, Gerald J. Beck, Nicholas S. Hill, Stephen C. Mathai, Paul M. Hassoun, Rachel Damico</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4390064662</t>
+          <t>Pulmonary and Critical Care Medicine, Johns Hopkins University, Baltimore, MD, United States; Division of Pulmonary and Critical Care Medicine, Johns Hopkins University, Baltimore, MD, United States.; Molecular Determinants Core, Johns Hopkins All Children's Hospital, St. Petersburg, FL, United States.; Molecular Determinants Core, Johns Hopkins All Children's Hospital, St. Petersburg, FL, United States.; Johns Hopkins University, Baltimore, MD, United States.; Pharmacology and Molecular Sciences, Johns Hopkins University, Baltimore, MD, United States.; Division of Rheumatology, Johns Hopkins University, Baltimore, MD, United States.; Division of Rheumatology, Johns Hopkins University, Baltimore, MD, United States.; Medicine, Vanderbilt University, Nashville, TN, United States.; Cardiology, Brigham and Women's Hospital, Boston, MA, United States.; Cornell University, Ithaca, NY, United States.; Columbia University, New York, NY, United States.; New York University, New York, NY, United States.; Indiana University School of Medicine, Indianapolis, IN, United States.; Lerner Research Institute, Cleveland Clinic, Cleveland, OH, United States.; Department of Inflammation and Immunity, Cleveland Clinic, Cleveland, OH, United States.; Department of Cardiovascular &amp; Metabolic Sciences, Cleveland Clinic, Cleveland, OH, United States.; Division of Pediatric Cardiology, The University of Texas Southwestern Medical Center, Dallas, TX, United States.; University of Arizona, Tucson, AZ, United States.; Mayo Clinic, Rochester, MN, United States.; Department of Inflammation and Immunity, Cleveland Clinic, Cleveland, OH, United States.; Quantitative Health Sciences, Cleveland Clinic, Cleveland, OH, United States.; Medicine, Tufts Medical Center, Boston, MA, United States.; Medicine, Johns Hopkins University, Baltimore, MD, United States.; Medicine, Johns Hopkins University, Baltimore, MD, United States.; Johns Hopkins Hospital, Baltimore, MD, United States.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Advanced Hemodynamic and Cluster Analysis for Identifying Novel RV function subphenotypes in Patients with Pulmonary Hypertension</t>
+          <t>https://openalex.org/W4387296302</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2023-12-01</t>
+          <t>Kynurenine pathway metabolism evolves with development of preclinical and scleroderma-associated pulmonary arterial hypertension</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>The Journal of Heart and Lung Transplantation</t>
+          <t>2023-11-01</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>American Journal of Physiology-lung Cellular and Molecular Physiology</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.healun.2023.12.009</t>
+          <t>American Physical Society</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1152/ajplung.00177.2023</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2127,35 +2232,40 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/38141893</t>
-        </is>
-      </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.healun.2023.12.009</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37786941</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1152/ajplung.00177.2023</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0713/Franz Rischard_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Franz Rischard_2023.xlsx
@@ -447,7 +447,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Steven D. Nathan, Chunqin Deng, Christopher S. King, Hilary M. DuBrock, Jean M. Elwing, Sudarshan Rajagopal, Franz Rischard, Sandeep Sahay, Meredith Broderick, Eric Shen, Peter Smith, Victor F. Tapson, Aaron B. Waxman</t>
+          <t>Steven D. Nathan, Chunqin Deng, Christopher S. King, Hilary M. DuBrock, Jean Elwing, Sudarshan Rajagopal, Franz Rischard, Sandeep Sahay, Meredith Broderick, Eric Shen, Peter Smith, Victor F. Tapson, Aaron B. Waxman</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -507,7 +507,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -621,57 +621,57 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Robert P. Frantz, Jane A. Leopold, Paul M. Hassoun, Anna R. Hemnes, Evelyn M. Horn, Stephen C. Mathai, Franz Rischard, A. Brett Larive, W.H. Wilson Tang, Margaret M. Park, Nicholas S. Hill, Erika B. Rosenzweig</t>
+          <t>Megan M. Lowery, Nicholas S. Hill, Lu Wang, Erika B. Rosenzweig, Aparna Bhat, Serpil C. Erzurum, J. Emanuel Finet, Christine Jellis, Sunjeet Kaur, Deborah Kwon, Rawan Nawabit, Milena Radeva, Gerald J. Beck, Robert P. Frantz, Paul M. Hassoun, Anna R. Hemnes, Evelyn M. Horn, Jane A. Leopold, Franz Rischard, Reena Mehra, Nicholas S. Hill, Lei Xiao, Yongping Fu, Lisa Postow, Barry Schmetter, K. Stanton, Xuefei Tian, Michael P. Gray, Banny S. Wong, Jane A. Leopold, Aaron B. Waxman, Marcelo F. DiCarli, Laurie Lawler, Bradley A. Maron, Sergio A. Segrera, David M. Systrom, Peng Yu, Erika B. Rosenzweig, Selim M. Arcasoy, David J. Brady, Wendy K. Chung, David A. Payne, Gabriele Grünig, Jennifer Haythe, U. Krishnan, Evelyn M. Horn, Kemal M. Akat, Alain C. Borczuk, Richard B. Devereux, John B. Gordon, Robert J. Kaner, Maria Karas, Jin Sik Min, Nupoor Narula, Michelle L. Ricketts, I. Sobol, Robert Spiera, Harsimran Singh, Thomas Tuschl, Jonathan W. Weinsaft, Paul M. Hassoun, Stephen C. Mathai, Kathleen C. Barnes, R.L. Damico, Blessing Enobun, Lei Gao, Marc K. Halushka, David A. Kass, Todd M. Kolb, Lin Tian, Ryan J. Tedford, Stefan L. Zimmerman, Robert P. Frantz, Atta Behfar, Linda Block, Barry A. Borlaug, Louise A. Durst, Thomas A. Foley, Thomas Hammer, Bruce D. Johnson, Geoffrey B. Johnson, Garvan C. Kane, Michael J. Krowka, Annette McNallan, Thomas P. Olson, Margaret M. Redfield, K. Rohwer, André Terzic, Eric E. Williamson, Franz Rischard, Jason X.‐J. Yuan, Aiden Abidov, Joe G.N. Garcia, Arlette G. Cordery, Ankit A. Desai, Howard H. Erickson, Lene Hansen, Zain Khalpey, Kenneth S. Knox, Yves A. Lussier</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Department of Cardiovascular Medicine Mayo Clinic Rochester Minnesota USA; Harvard Medical School Boston Massachusetts USA; Division of Pulmonary and Critical Care Medicine Johns Hopkins University Baltimore Maryland USA; Division of Allergy, Pulmonary and Critical Care Medicine Vanderbilt University Medical Center Nashville Tennessee USA; Division of Pulmonary and Critical Care Medicine Johns Hopkins University Baltimore Maryland USA; Division of Pulmonary and Critical Care Medicine Johns Hopkins University Baltimore Maryland USA; Perkin Heart Failure Center, Division of Cardiology, Weill Cornell Medicine, New York, New York, USA; Department of Quantitative Health Sciences Cleveland Clinic Cleveland Ohio USA; Department of Cardiovascular Medicine Cleveland Clinic Cleveland Ohio USA; Department of Cardiovascular Medicine Cleveland Clinic Cleveland Ohio USA; Division of Pulmonary, Critical Care, and Sleep Medicine Tufts Medical Center Boston Massachusetts USA; Department of Pediatrics and Medicine Columbia University New York New York USA</t>
+          <t>Division of Pulmonary, Critical Care and Sleep Medicine, University of Florida, Gainesville, Florida, USA; Division of Pulmonary, Critical Care and Sleep Medicine, Tufts Medical Center, Boston, Massachusetts, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Division of Pediatric Cardiology, Department of Pediatrics and Medicine, Columbia University Irving Medical Center, NewYork-Presbyterian Hospital, New York, New York, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Respiratory Institute, Cleveland Clinic, Cleveland, Ohio, USA; Heart, Vascular and Thoracic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Department of Quantitative Health Sciences, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Respiratory Institute, Cleveland Clinic, Cleveland, Ohio, USA; Heart, Vascular and Thoracic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Department of Quantitative Health Sciences, Cleveland Clinic, Cleveland, Ohio, USA; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA; Division of Pulmonary and Critical Care Medicine, Johns Hopkins University, Baltimore, Maryland, USA; Division of Allergy, Pulmonary and Critical Care Medicine, Vanderbilt University Medical Center, Nashville, Tennessee, USA; Perkin Heart Failure Center, Division of Cardiology, Weill Cornell Medicine, New York, New York, USA; Division of Cardiovascular Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, Massachusetts, USA; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, Arizona, USA; Heart, Vascular and Thoracic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Respiratory Institute, Cleveland Clinic, Cleveland, Ohio, USA; Division of Pulmonary, Critical Care and Sleep Medicine, Tufts Medical Center, Boston, Massachusetts, USA; Division of Cardiovascular Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, Massachusetts, USA; ; Division of Cardiovascular Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, Massachusetts, USA; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA; Department of Quantitative Health Sciences, Cleveland Clinic, Cleveland, Ohio, USA; ; Heart, Vascular and Thoracic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Respiratory Institute, Cleveland Clinic, Cleveland, Ohio, USA; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA; Division of Cardiovascular Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, Massachusetts, USA; ; Heart, Vascular and Thoracic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Respiratory Institute, Cleveland Clinic, Cleveland, Ohio, USA; Division of Cardiovascular Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, Massachusetts, USA; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, Arizona, USA; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, Arizona, USA; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, Arizona, USA; Division of Pediatric Cardiology, Department of Pediatrics and Medicine, Columbia University Irving Medical Center, NewYork-Presbyterian Hospital, New York, New York, USA; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, Arizona, USA; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, Arizona, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, Arizona, USA; Department of Quantitative Health Sciences, Cleveland Clinic, Cleveland, Ohio, USA; Division of Cardiovascular Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, Massachusetts, USA; Division of Pulmonary and Critical Care Medicine, Johns Hopkins University, Baltimore, Maryland, USA; Perkin Heart Failure Center, Division of Cardiology, Weill Cornell Medicine, New York, New York, USA; Department of Quantitative Health Sciences, Cleveland Clinic, Cleveland, Ohio, USA; ; Heart, Vascular and Thoracic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Respiratory Institute, Cleveland Clinic, Cleveland, Ohio, USA; Division of Cardiovascular Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, Massachusetts, USA; Heart, Vascular and Thoracic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Respiratory Institute, Cleveland Clinic, Cleveland, Ohio, USA; Heart, Vascular and Thoracic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Respiratory Institute, Cleveland Clinic, Cleveland, Ohio, USA; Division of Cardiovascular Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, Massachusetts, USA; Heart, Vascular and Thoracic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Respiratory Institute, Cleveland Clinic, Cleveland, Ohio, USA; Heart, Vascular and Thoracic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Respiratory Institute, Cleveland Clinic, Cleveland, Ohio, USA; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, Arizona, USA; Heart, Vascular and Thoracic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Respiratory Institute, Cleveland Clinic, Cleveland, Ohio, USA; Heart, Vascular and Thoracic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Respiratory Institute, Cleveland Clinic, Cleveland, Ohio, USA; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA; Division of Cardiovascular Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, Massachusetts, USA; Division of Pulmonary and Critical Care Medicine, Johns Hopkins University, Baltimore, Maryland, USA; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, Arizona, USA; Department of Quantitative Health Sciences, Cleveland Clinic, Cleveland, Ohio, USA; Heart, Vascular and Thoracic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Respiratory Institute, Cleveland Clinic, Cleveland, Ohio, USA; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA; Division of Cardiovascular Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, Massachusetts, USA; Heart, Vascular and Thoracic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Respiratory Institute, Cleveland Clinic, Cleveland, Ohio, USA; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, Arizona, USA; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA; Heart, Vascular and Thoracic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Respiratory Institute, Cleveland Clinic, Cleveland, Ohio, USA; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, Arizona, USA; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA; ; Division of Cardiovascular Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, Massachusetts, USA; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA; Division of Cardiovascular Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, Massachusetts, USA; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA; Department of Quantitative Health Sciences, Cleveland Clinic, Cleveland, Ohio, USA; Department of Quantitative Health Sciences, Cleveland Clinic, Cleveland, Ohio, USA; Heart, Vascular and Thoracic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Respiratory Institute, Cleveland Clinic, Cleveland, Ohio, USA; ; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA; Heart, Vascular and Thoracic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Respiratory Institute, Cleveland Clinic, Cleveland, Ohio, USA; Department of Quantitative Health Sciences, Cleveland Clinic, Cleveland, Ohio, USA; ; Heart, Vascular and Thoracic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Respiratory Institute, Cleveland Clinic, Cleveland, Ohio, USA; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, Arizona, USA; Division of Cardiovascular Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, Massachusetts, USA; ; Division of Cardiovascular Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, Massachusetts, USA; ; ; Heart, Vascular and Thoracic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Respiratory Institute, Cleveland Clinic, Cleveland, Ohio, USA; Division of Cardiovascular Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, Massachusetts, USA; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, Arizona, USA; Department of Quantitative Health Sciences, Cleveland Clinic, Cleveland, Ohio, USA; Perkin Heart Failure Center, Division of Cardiology, Weill Cornell Medicine, New York, New York, USA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4313443279</t>
+          <t>https://openalex.org/W4388623071</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Acute vasoreactivity testing during right heart catheterization in chronic thromboembolic pulmonary hypertension: Results from the pulmonary vascular disease phenomics study</t>
+          <t>Sleep-Related Hypoxia, Right Ventricular Dysfunction, and Survival in Patients With Group 1 Pulmonary Arterial Hypertension</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-11-01</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Pulmonary circulation</t>
+          <t>Journal of the American College of Cardiology</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>SAGE Publishing</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/pul2.12181</t>
+          <t>https://doi.org/10.1016/j.jacc.2023.09.806</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>cc-by-nc</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -691,12 +691,12 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36618713</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37968017</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/pul2.12181</t>
+          <t>https://doi.org/10.1016/j.jacc.2023.09.806</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -708,47 +708,47 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Jordan Elliott, Nainika Menakuru, Kellan Juliet Martin, Farbod Rahaghi, Franz Rischard, Rebecca Vanderpool</t>
+          <t>Robert P. Frantz, Jane A. Leopold, Paul M. Hassoun, Anna R. Hemnes, Evelyn M. Horn, Stephen C. Mathai, Franz Rischard, A. Brett Larive, W.H. Wilson Tang, Margaret M. Park, Nicholas S. Hill, Erika B. Rosenzweig</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Division of Translational and Regenerative Medicine University of Arizona Tucson AZ USA; Division of Translational and Regenerative Medicine University of Arizona Tucson AZ USA; Division of Translational and Regenerative Medicine University of Arizona Tucson AZ USA; Pulmonary and Critical Care Brigham and Women’s Hospital Boston MA USA; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine University of Arizona Tucson AZ USA; Division of Cardiovascular Medicine, College of Medicine The Ohio State University Columbus OH USA; Division of Translational and Regenerative Medicine University of Arizona Tucson AZ USA</t>
+          <t>Department of Cardiovascular Medicine Mayo Clinic Rochester Minnesota USA; Harvard Medical School Boston Massachusetts USA; Division of Pulmonary and Critical Care Medicine Johns Hopkins University Baltimore Maryland USA; Division of Allergy, Pulmonary and Critical Care Medicine Vanderbilt University Medical Center Nashville Tennessee USA; Division of Pulmonary and Critical Care Medicine Johns Hopkins University Baltimore Maryland USA; Division of Pulmonary and Critical Care Medicine Johns Hopkins University Baltimore Maryland USA; Perkin Heart Failure Center, Division of Cardiology, Weill Cornell Medicine, New York, New York, USA; Department of Quantitative Health Sciences Cleveland Clinic Cleveland Ohio USA; Department of Cardiovascular Medicine Cleveland Clinic Cleveland Ohio USA; Department of Cardiovascular Medicine Cleveland Clinic Cleveland Ohio USA; Division of Pulmonary, Critical Care, and Sleep Medicine Tufts Medical Center Boston Massachusetts USA; Department of Pediatrics and Medicine Columbia University New York New York USA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387473487</t>
+          <t>https://openalex.org/W4313443279</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>iCPET Calculator: A Web‐Based Application to Standardize the Calculation of Alpha Distensibility in Patients With Pulmonary Arterial Hypertension</t>
+          <t>Acute vasoreactivity testing during right heart catheterization in chronic thromboembolic pulmonary hypertension: Results from the pulmonary vascular disease phenomics study</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2023-10-17</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Journal of the American Heart Association</t>
+          <t>Pulmonary circulation</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Wiley</t>
+          <t>SAGE Publishing</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1161/jaha.123.029667</t>
+          <t>https://doi.org/10.1002/pul2.12181</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>cc-by-nc-nd</t>
+          <t>cc-by-nc</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -778,12 +778,12 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37815026</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36618713</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1161/jaha.123.029667</t>
+          <t>https://doi.org/10.1002/pul2.12181</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -795,57 +795,57 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Franz Rischard, Roberto Bernardo, Rebecca Vanderpool, Deborah Kwon, Tushar Acharya, Margaret M. Park, Austin Katrynuik, Michael Insel, Saad Kubba, Roberto Badagliacca, A. Brett Larive, Robert Naeije, Joe G.N. Garcia, Gerald J. Beck, Serpil C. Erzurum, Robert P. Frantz, Paul M. Hassoun, Anna R. Hemnes, Nicholas S. Hill, Evelyn M. Horn, Jane A. Leopold, Erika B. Rosenzweig, W.H. Wilson Tang, Jennifer Wilcox</t>
+          <t>Jordan Elliott, Nainika Menakuru, Kellan Juliet Martin, Farbod Rahaghi, Franz Rischard, Rebecca Vanderpool</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Division of Pulmonary, Allergy, Critical Care and Sleep Medicine (F.P.R., M.I.), University of Arizona, Tuscon.; Division of Pulmonary, Critical Care and Sleep Medicine, University of Oklahoma Health Sciences Center, Oklahoma City (R.J.B.).; Division of Cardiovascular Medicine, The Ohio State University, Columbus (R.R.V.).; Department of Cardiovascular Medicine (D.H.K., M.M.P., W.H.W.T.), Cleveland Clinic, Cleveland, OH.; Divison of Cardiology (T.A., S.K.), University of Arizona, Tuscon.; Department of Cardiovascular Medicine (D.H.K., M.M.P., W.H.W.T.), Cleveland Clinic, Cleveland, OH.; Department of Medicine (A.K., J.G.N.G.), University of Arizona, Tuscon.; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine (F.P.R., M.I.), University of Arizona, Tuscon.; Divison of Cardiology (T.A., S.K.), University of Arizona, Tuscon.; Department of Cardiovascular and Respiratory Science, Sapienza University of Rome, Italy (R.B.).; Department of Quantitative Health Sciences (A.B.L., G.J.B.), Cleveland Clinic, Cleveland, OH.; Department of Pathophysiology, Free University of Brussels, Belgium (R.N.).; Department of Medicine (A.K., J.G.N.G.), University of Arizona, Tuscon.; Department of Quantitative Health Sciences (A.B.L., G.J.B.), Cleveland Clinic, Cleveland, OH.; Lerner Research Institute (S.C.E.), Cleveland Clinic, Cleveland, OH.; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, MN (R.P.F.).; Division of Pulmonary and Critical Care Medicine, Johns Hopkins University, Baltimore, MD (P.M.H.).; Division of Allergy, Pulmonary and Critical Care Medicine, Vanderbilt University Medical Center, Nashville, TN (A.R.H.).; Division of Pulmonary, Critical Care, and Sleep Medicine, Tufts Medical Center, Boston, MA (N.S.H.).; Division of Cardiology, Perkin Heart Failure Center, Weill Cornell Medicine, New York, NY (E.M.H.).; Division of Cardiovascular Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, MA (J.A.L.).; Department of Pediatrics and Medicine, Columbia University, Vegelos College of Physicians and Surgeons, New York, NY (E.B.R.).; Department of Cardiovascular Medicine (D.H.K., M.M.P., W.H.W.T.), Cleveland Clinic, Cleveland, OH.; Department of Cardiovascular and Metabolic Sciences (J.D.W.), Cleveland Clinic, Cleveland, OH.</t>
+          <t>Division of Translational and Regenerative Medicine University of Arizona Tucson AZ USA; Division of Translational and Regenerative Medicine University of Arizona Tucson AZ USA; Division of Translational and Regenerative Medicine University of Arizona Tucson AZ USA; Pulmonary and Critical Care Brigham and Women’s Hospital Boston MA USA; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine University of Arizona Tucson AZ USA; Division of Cardiovascular Medicine, College of Medicine The Ohio State University Columbus OH USA; Division of Translational and Regenerative Medicine University of Arizona Tucson AZ USA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386407374</t>
+          <t>https://openalex.org/W4387473487</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Classification and Predictors of Right Ventricular Functional Recovery in Pulmonary Arterial Hypertension</t>
+          <t>iCPET Calculator: A Web‐Based Application to Standardize the Calculation of Alpha Distensibility in Patients With Pulmonary Arterial Hypertension</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>2023-10-17</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Circulation: Heart Failure</t>
+          <t>Journal of the American Heart Association</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>Wiley</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1161/circheartfailure.123.010555</t>
+          <t>https://doi.org/10.1161/jaha.123.029667</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by-nc-nd</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -865,12 +865,12 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37664964</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37815026</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1161/circheartfailure.123.010555</t>
+          <t>https://doi.org/10.1161/jaha.123.029667</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -882,42 +882,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Megan M. Lowery, Nicholas S. Hill, Lu Wang, Erika B. Rosenzweig, Aparna Bhat, Serpil C. Erzurum, J. Emanuel Finet, Christine Jellis, Sunjeet Kaur, Deborah Kwon, Rawan Nawabit, Milena Radeva, Gerald J. Beck, Robert P. Frantz, Paul M. Hassoun, Anna R. Hemnes, Evelyn M. Horn, Jane A. Leopold, Franz Rischard, Reena Mehra, Nicholas S. Hill, Lei Xiao, Yongping Fu, Lisa Postow, Barry Schmetter, K. Stanton, Xuefei Tian, Michael P. Gray, Banny S. Wong, Jane A. Leopold, Aaron B. Waxman, Marcelo F. DiCarli, Laurie Lawler, Bradley A. Maron, Sergio A. Segrera, David M. Systrom, Peng Yu, Erika B. Rosenzweig, Selim M. Arcasoy, David J. Brady, Wendy K. Chung, David A. Payne, Gabriele Grünig, Jennifer Haythe, U. Krishnan, Evelyn M. Horn, Kemal M. Akat, Alain C. Borczuk, Richard B. Devereux, John B. Gordon, Robert J. Kaner, Maria Karas, Jin Sik Min, Nupoor Narula, Michelle L. Ricketts, I. Sobol, Robert Spiera, Harsimran Singh, Thomas Tuschl, Jonathan W. Weinsaft, Paul M. Hassoun, Stephen C. Mathai, Kathleen C. Barnes, R.L. Damico, Blessing Enobun, Lei Gao, Marc K. Halushka, David A. Kass, Todd M. Kolb, Lin Tian, Ryan J. Tedford, Stefan L. Zimmerman, Robert P. Frantz, Atta Behfar, Linda Block, Barry A. Borlaug, Louise A. Durst, Thomas A. Foley, Thomas Hammer, Bruce D. Johnson, Geoffrey B. Johnson, Garvan C. Kane, Michael J. Krowka, Annette McNallan, Thomas P. Olson, Margaret M. Redfield, K. Rohwer, André Terzic, Eric E. Williamson, Franz Rischard, Jason X.‐J. Yuan, Aiden Abidov, Joe G.N. Garcia, Arlette G. Cordery, Ankit A. Desai, Howard H. Erickson, Lene Hansen, Zain Khalpey, Kenneth S. Knox, Yves A. Lussier</t>
+          <t>Franz Rischard, Roberto Bernardo, Rebecca Vanderpool, Deborah Kwon, Tushar Acharya, Margaret M. Park, Austin Katrynuik, Michael Insel, Saad Kubba, Roberto Badagliacca, A. Brett Larive, Robert Naeije, Joe G.N. Garcia, Gerald J. Beck, Serpil C. Erzurum, Robert P. Frantz, Paul M. Hassoun, Anna R. Hemnes, Nicholas S. Hill, Evelyn M. Horn, Jane A. Leopold, Erika B. Rosenzweig, W.H. Wilson Tang, Jennifer Wilcox</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Division of Pulmonary, Critical Care and Sleep Medicine, University of Florida, Gainesville, Florida, USA; Division of Pulmonary, Critical Care and Sleep Medicine, Tufts Medical Center, Boston, Massachusetts, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Division of Pediatric Cardiology, Department of Pediatrics and Medicine, Columbia University Irving Medical Center, NewYork-Presbyterian Hospital, New York, New York, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Respiratory Institute, Cleveland Clinic, Cleveland, Ohio, USA; Heart, Vascular and Thoracic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Department of Quantitative Health Sciences, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Respiratory Institute, Cleveland Clinic, Cleveland, Ohio, USA; Heart, Vascular and Thoracic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Department of Quantitative Health Sciences, Cleveland Clinic, Cleveland, Ohio, USA; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA; Division of Pulmonary and Critical Care Medicine, Johns Hopkins University, Baltimore, Maryland, USA; Division of Allergy, Pulmonary and Critical Care Medicine, Vanderbilt University Medical Center, Nashville, Tennessee, USA; Perkin Heart Failure Center, Division of Cardiology, Weill Cornell Medicine, New York, New York, USA; Division of Cardiovascular Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, Massachusetts, USA; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, Arizona, USA; Heart, Vascular and Thoracic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Respiratory Institute, Cleveland Clinic, Cleveland, Ohio, USA; Division of Pulmonary, Critical Care and Sleep Medicine, Tufts Medical Center, Boston, Massachusetts, USA; Division of Cardiovascular Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, Massachusetts, USA; ; Division of Cardiovascular Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, Massachusetts, USA; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA; Department of Quantitative Health Sciences, Cleveland Clinic, Cleveland, Ohio, USA; ; Heart, Vascular and Thoracic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Respiratory Institute, Cleveland Clinic, Cleveland, Ohio, USA; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA; Division of Cardiovascular Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, Massachusetts, USA; ; Heart, Vascular and Thoracic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Respiratory Institute, Cleveland Clinic, Cleveland, Ohio, USA; Division of Cardiovascular Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, Massachusetts, USA; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, Arizona, USA; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, Arizona, USA; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, Arizona, USA; Division of Pediatric Cardiology, Department of Pediatrics and Medicine, Columbia University Irving Medical Center, NewYork-Presbyterian Hospital, New York, New York, USA; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, Arizona, USA; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, Arizona, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, Arizona, USA; Department of Quantitative Health Sciences, Cleveland Clinic, Cleveland, Ohio, USA; Division of Cardiovascular Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, Massachusetts, USA; Division of Pulmonary and Critical Care Medicine, Johns Hopkins University, Baltimore, Maryland, USA; Perkin Heart Failure Center, Division of Cardiology, Weill Cornell Medicine, New York, New York, USA; Department of Quantitative Health Sciences, Cleveland Clinic, Cleveland, Ohio, USA; ; Heart, Vascular and Thoracic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Respiratory Institute, Cleveland Clinic, Cleveland, Ohio, USA; Division of Cardiovascular Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, Massachusetts, USA; Heart, Vascular and Thoracic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Respiratory Institute, Cleveland Clinic, Cleveland, Ohio, USA; Heart, Vascular and Thoracic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Respiratory Institute, Cleveland Clinic, Cleveland, Ohio, USA; Division of Cardiovascular Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, Massachusetts, USA; Heart, Vascular and Thoracic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Respiratory Institute, Cleveland Clinic, Cleveland, Ohio, USA; Heart, Vascular and Thoracic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Respiratory Institute, Cleveland Clinic, Cleveland, Ohio, USA; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, Arizona, USA; Heart, Vascular and Thoracic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Respiratory Institute, Cleveland Clinic, Cleveland, Ohio, USA; Heart, Vascular and Thoracic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Respiratory Institute, Cleveland Clinic, Cleveland, Ohio, USA; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA; Division of Cardiovascular Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, Massachusetts, USA; Division of Pulmonary and Critical Care Medicine, Johns Hopkins University, Baltimore, Maryland, USA; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, Arizona, USA; Department of Quantitative Health Sciences, Cleveland Clinic, Cleveland, Ohio, USA; Heart, Vascular and Thoracic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Respiratory Institute, Cleveland Clinic, Cleveland, Ohio, USA; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA; Division of Cardiovascular Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, Massachusetts, USA; Heart, Vascular and Thoracic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Respiratory Institute, Cleveland Clinic, Cleveland, Ohio, USA; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, Arizona, USA; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA; Heart, Vascular and Thoracic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Respiratory Institute, Cleveland Clinic, Cleveland, Ohio, USA; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, Arizona, USA; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA; ; Division of Cardiovascular Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, Massachusetts, USA; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA; Division of Cardiovascular Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, Massachusetts, USA; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA; Department of Quantitative Health Sciences, Cleveland Clinic, Cleveland, Ohio, USA; Department of Quantitative Health Sciences, Cleveland Clinic, Cleveland, Ohio, USA; Heart, Vascular and Thoracic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Respiratory Institute, Cleveland Clinic, Cleveland, Ohio, USA; ; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA; Heart, Vascular and Thoracic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Respiratory Institute, Cleveland Clinic, Cleveland, Ohio, USA; Department of Quantitative Health Sciences, Cleveland Clinic, Cleveland, Ohio, USA; ; Heart, Vascular and Thoracic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Respiratory Institute, Cleveland Clinic, Cleveland, Ohio, USA; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, Arizona, USA; Division of Cardiovascular Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, Massachusetts, USA; ; Division of Cardiovascular Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, Massachusetts, USA; ; ; Heart, Vascular and Thoracic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Neurologic Institute, Cleveland Clinic, Cleveland, Ohio, USA; Respiratory Institute, Cleveland Clinic, Cleveland, Ohio, USA; Division of Cardiovascular Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, Massachusetts, USA; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, Arizona, USA; Department of Quantitative Health Sciences, Cleveland Clinic, Cleveland, Ohio, USA; Perkin Heart Failure Center, Division of Cardiology, Weill Cornell Medicine, New York, New York, USA</t>
+          <t>Division of Pulmonary, Allergy, Critical Care and Sleep Medicine (F.P.R., M.I.), University of Arizona, Tuscon.; Division of Pulmonary, Critical Care and Sleep Medicine, University of Oklahoma Health Sciences Center, Oklahoma City (R.J.B.).; Division of Cardiovascular Medicine, The Ohio State University, Columbus (R.R.V.).; Department of Cardiovascular Medicine (D.H.K., M.M.P., W.H.W.T.), Cleveland Clinic, Cleveland, OH.; Divison of Cardiology (T.A., S.K.), University of Arizona, Tuscon.; Department of Cardiovascular Medicine (D.H.K., M.M.P., W.H.W.T.), Cleveland Clinic, Cleveland, OH.; Department of Medicine (A.K., J.G.N.G.), University of Arizona, Tuscon.; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine (F.P.R., M.I.), University of Arizona, Tuscon.; Divison of Cardiology (T.A., S.K.), University of Arizona, Tuscon.; Department of Cardiovascular and Respiratory Science, Sapienza University of Rome, Italy (R.B.).; Department of Quantitative Health Sciences (A.B.L., G.J.B.), Cleveland Clinic, Cleveland, OH.; Department of Pathophysiology, Free University of Brussels, Belgium (R.N.).; Department of Medicine (A.K., J.G.N.G.), University of Arizona, Tuscon.; Department of Quantitative Health Sciences (A.B.L., G.J.B.), Cleveland Clinic, Cleveland, OH.; Lerner Research Institute (S.C.E.), Cleveland Clinic, Cleveland, OH.; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, MN (R.P.F.).; Division of Pulmonary and Critical Care Medicine, Johns Hopkins University, Baltimore, MD (P.M.H.).; Division of Allergy, Pulmonary and Critical Care Medicine, Vanderbilt University Medical Center, Nashville, TN (A.R.H.).; Division of Pulmonary, Critical Care, and Sleep Medicine, Tufts Medical Center, Boston, MA (N.S.H.).; Division of Cardiology, Perkin Heart Failure Center, Weill Cornell Medicine, New York, NY (E.M.H.).; Division of Cardiovascular Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, MA (J.A.L.).; Department of Pediatrics and Medicine, Columbia University, Vegelos College of Physicians and Surgeons, New York, NY (E.B.R.).; Department of Cardiovascular Medicine (D.H.K., M.M.P., W.H.W.T.), Cleveland Clinic, Cleveland, OH.; Department of Cardiovascular and Metabolic Sciences (J.D.W.), Cleveland Clinic, Cleveland, OH.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388623071</t>
+          <t>https://openalex.org/W4386407374</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sleep-Related Hypoxia, Right Ventricular Dysfunction, and Survival in Patients With Group 1 Pulmonary Arterial Hypertension</t>
+          <t>Classification and Predictors of Right Ventricular Functional Recovery in Pulmonary Arterial Hypertension</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2023-11-01</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Journal of the American College of Cardiology</t>
+          <t>Circulation: Heart Failure</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.jacc.2023.09.806</t>
+          <t>https://doi.org/10.1161/circheartfailure.123.010555</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -952,12 +952,12 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37968017</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37664964</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.jacc.2023.09.806</t>
+          <t>https://doi.org/10.1161/circheartfailure.123.010555</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1143,62 +1143,62 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Pieter Martens, Yu Shi, Samar Farha, Serpil C. Erzurum, Anna R. Hemnes, Evelyn M. Horn, Franz Rischard, Erika B. Rosenzweig, Margaret M. Park, Paul M. Hassoun, W.H. Wilson Tang</t>
+          <t>Jordan Elliott, Nainika Menakuru, Kellan Juliet Martin, Farbod Rahaghi, Franz Rischard, Rebecca Vanderpool</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Cleveland Clinic, Cleveland, OH, USA; Cleveland Clinic, Cleveland, OH, USA; Cleveland Clinic, Cleveland, OH, USA; Cleveland Clinic, Cleveland, OH, USA; Cleveland Clinic, Cleveland, OH, USA; Cleveland Clinic, Cleveland, OH, USA; Cleveland Clinic, Cleveland, OH, USA; Cleveland Clinic, Cleveland, OH, USA; Cleveland Clinic, Cleveland, OH, USA; Cleveland Clinic, Cleveland, OH, USA; Cleveland Clinic, Cleveland, OH, USA</t>
+          <t xml:space="preserve"> University of Arizona, UNITED STATES;;  University of Arizona, UNITED STATES;; Division of Translational and Regenerative Medicine, University of Arizona;  Brigham and Women's Hospital, Harvard School of Medicine, UNITED STATES;;  University of Arizona, UNITED STATES;; Division of Cardiovascular Medicine, College of Medicine, Ohio State University; Division of Translational and Regenerative Medicine, University of Arizona</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4323039702</t>
+          <t>https://openalex.org/W4321598368</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>DEFINITION, PREVALENCE AND PATHOPHYSIOLOGIC ROLE OF IRON DEFICIENCY IN PULMONARY VASCULAR DISEASE</t>
+          <t>iCPET calculator: a web-based application to standardize the calculation of alpha distensibility in patients with pulmonary arterial hypertension</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2023-03-01</t>
+          <t>2023-02-22</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Journal of the American College of Cardiology</t>
+          <t>medRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0735-1097(23)02335-5</t>
+          <t>https://doi.org/10.1101/2023.02.21.23286277</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by-nc-nd</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>en</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0735-1097(23)02335-5</t>
+          <t>https://doi.org/10.1101/2023.02.21.23286277</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1230,62 +1230,62 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sei Y. Chung, A. Schweickart, W. Whalen, Conor Willson, Robert P. Frantz, Franz Rischard, Alexandra C. Racanelli, Evelyn M. Horn, PVDOMICS Study Group</t>
+          <t>Pieter Martens, Yu Shi, Samar Farha, Serpil C. Erzurum, Anna R. Hemnes, Evelyn M. Horn, Franz Rischard, Erika B. Rosenzweig, Margaret M. Park, Paul M. Hassoun, W.H. Wilson Tang</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pulmonary and Critical Care Medicine, Weill Cornell Medicine, New York, NY, United States; Computational Biomedicine, Weill Cornell Medicine, New York, NY, United States; Pulmonary and Critical Care Medicine, Weill Cornell Medicine, New York, NY, United States; Division of Pulmonary and Critical Care, University of Arizona, Tucson, AZ, United States; Cardiovascular Diseases, Mayo Clinic, Rochester, MN, United States; Division of Pulmonary and Critical Care, University of Arizona, Tucson, AZ, United States; Pulmonary and Critical Care Medicine, Weill Cornell Medicine, New York, NY, United States; Cardiology, Weill Cornell Medicine, New York, NY, United States; </t>
+          <t>Cleveland Clinic, Cleveland, OH, USA; Cleveland Clinic, Cleveland, OH, USA; Cleveland Clinic, Cleveland, OH, USA; Cleveland Clinic, Cleveland, OH, USA; Cleveland Clinic, Cleveland, OH, USA; Cleveland Clinic, Cleveland, OH, USA; Cleveland Clinic, Cleveland, OH, USA; Cleveland Clinic, Cleveland, OH, USA; Cleveland Clinic, Cleveland, OH, USA; Cleveland Clinic, Cleveland, OH, USA; Cleveland Clinic, Cleveland, OH, USA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4367601265</t>
+          <t>https://openalex.org/W4323039702</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Fatty Acid Dysregulation Identifies Right Ventricular Dysfunction in Chronic Obstructive Pulmonary Disease (COPD) Patients: A Metabolomic Analysis in the Pulmonary Vascular Disease Phenomics (PVDOMICS) Cohort</t>
+          <t>DEFINITION, PREVALENCE AND PATHOPHYSIOLOGIC ROLE OF IRON DEFICIENCY IN PULMONARY VASCULAR DISEASE</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2023-05-01</t>
+          <t>2023-03-01</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Journal of the American College of Cardiology</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a2509</t>
+          <t>https://doi.org/10.1016/s0735-1097(23)02335-5</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publisher-specific-oa</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>hybrid</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>de</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a2509</t>
+          <t>https://doi.org/10.1016/s0735-1097(23)02335-5</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1317,22 +1317,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>S. Jothi, Guido Claessen, Michael Insel, Saad Kubba, Erin Howden, S. Ruiz Carmona, Franz Rischard</t>
+          <t>Sei Y. Chung, A. Schweickart, W. Whalen, Conor Willson, Robert P. Frantz, Franz Rischard, Alexandra C. Racanelli, Evelyn M. Horn, PVDOMICS Study Group</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Internal Medicine, Banner University Medical Center, Tucson, AZ, United States; Department of Cardiovascular Sciences, Leuven,  Belgium; Internal Medicine, University of Arizona, Tucson, AZ, United States; University of Arizona Hospital, Tucson, AZ, United States; Baker Heart and Diabetes Institute, Melbourne,  Australia; Baker Heart and Diabetes Institute, Melbourne,  Australia; Division of Pulmonary and Critical Care, University of Arizona, Tucson, AZ, United States</t>
+          <t xml:space="preserve">Pulmonary and Critical Care Medicine, Weill Cornell Medicine, New York, NY, United States; Computational Biomedicine, Weill Cornell Medicine, New York, NY, United States; Pulmonary and Critical Care Medicine, Weill Cornell Medicine, New York, NY, United States; Division of Pulmonary and Critical Care, University of Arizona, Tucson, AZ, United States; Cardiovascular Diseases, Mayo Clinic, Rochester, MN, United States; Division of Pulmonary and Critical Care, University of Arizona, Tucson, AZ, United States; Pulmonary and Critical Care Medicine, Weill Cornell Medicine, New York, NY, United States; Cardiology, Weill Cornell Medicine, New York, NY, United States; </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4367606695</t>
+          <t>https://openalex.org/W4367601265</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Post-acute Sequelae of SARS Co-V2 and Chronic Fatigue/Myalgic Encephalitis Share Similar Pathophysiologic Mechanisms of Exercise Limitation</t>
+          <t>Fatty Acid Dysregulation Identifies Right Ventricular Dysfunction in Chronic Obstructive Pulmonary Disease (COPD) Patients: A Metabolomic Analysis in the Pulmonary Vascular Disease Phenomics (PVDOMICS) Cohort</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a6470</t>
+          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a2509</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a6470</t>
+          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a2509</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1404,22 +1404,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>B.E. Funke, J.G. Terry, Sangeeta Nair, Jeff Carr, Hui Nian, Barry A. Borlaug, S.C. Erzurum, R.P. Frantz, Gabriele Grünig, Paul M. Hassoun, Evelyn M. Horn, Miriam Jacob, Joan Leopold, Franz Rischard, Anna R. Hemnes, PVDOMICS study group</t>
+          <t>S. Jothi, Guido Claessen, Michael Insel, Saad Kubba, Erin Howden, S. Ruiz Carmona, Franz Rischard</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Allergy, Pulmonary &amp; Critical Care, Vanderbilt University Medical Center, Nashville, TN, United States; Vanderbilt University Medical Center, Nashville, TN, United States; Vanderbilt University Medical Center, Nashville, TN, United States; Department of Radiology and Radiological Sciences, Vanderbilt University Medical Center, Nashville, TN, United States; Vanderbilt University Medical Center, Nashville, TN, United States; Cardiology, Mayo Clinic, Rochester, MN, United States; Cleveland Clinic Foundation, Cleveland, OH, United States; Cardiovascular Diseases, Mayo Clinic, Rochester, MN, United States; Medicine, NYU Grossman School of Medicine, New York, NY, United States; Div of Pulm and Crit Care, Johns Hopkins Univ School of Med, Baltimore, MD, United States; Weill Cornell Med Ctr, New York, NY, United States; Cardiovascular Medicine, Cleveland Clinic, Cleveland, OH, United States; Cardiovascular Medicine, Brigham and Women''s Hospital, Harvard Medical School, Boston, MA, United States; Division of Pulmonary and Critical Care, University of Arizona, Tucson, AZ, United States; Allergy, Pulmonary &amp; Critical Care, Vanderbilt University Medical Center, Nashville, TN, United States; </t>
+          <t>Internal Medicine, Banner University Medical Center, Tucson, AZ, United States; Department of Cardiovascular Sciences, Leuven,  Belgium; Internal Medicine, University of Arizona, Tucson, AZ, United States; University of Arizona Hospital, Tucson, AZ, United States; Baker Heart and Diabetes Institute, Melbourne,  Australia; Baker Heart and Diabetes Institute, Melbourne,  Australia; Division of Pulmonary and Critical Care, University of Arizona, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4367607364</t>
+          <t>https://openalex.org/W4367606695</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Relationship Between Hepatic Fat Content and Pulmonary Vascular Disease Severity in a Subset of the Pvdomics Cohort</t>
+          <t>Post-acute Sequelae of SARS Co-V2 and Chronic Fatigue/Myalgic Encephalitis Share Similar Pathophysiologic Mechanisms of Exercise Limitation</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a3741</t>
+          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a6470</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a3741</t>
+          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a6470</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1491,57 +1491,57 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Alexandra M Janowski, Keeley Ravellette, Michael Insel, Joe G.N. Garcia, Franz Rischard, Rebecca Vanderpool</t>
+          <t>B.E. Funke, J.G. Terry, Sangeeta Nair, Jeff Carr, Hui Nian, Barry A. Borlaug, S.C. Erzurum, R.P. Frantz, Gabriele Grünig, Paul M. Hassoun, Evelyn M. Horn, Miriam Jacob, Joan Leopold, Franz Rischard, Anna R. Hemnes, PVDOMICS study group</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>The Ohio State University; Division of Translational and Regenerative Medicine, The University of Arizona, Tucson, AZ; University of Arizona, UNITED STATES; University of Florida, UNITED STATES; University of Arizona, UNITED STATES; The Ohio State University</t>
+          <t xml:space="preserve">Allergy, Pulmonary &amp; Critical Care, Vanderbilt University Medical Center, Nashville, TN, United States; Vanderbilt University Medical Center, Nashville, TN, United States; Vanderbilt University Medical Center, Nashville, TN, United States; Department of Radiology and Radiological Sciences, Vanderbilt University Medical Center, Nashville, TN, United States; Vanderbilt University Medical Center, Nashville, TN, United States; Cardiology, Mayo Clinic, Rochester, MN, United States; Cleveland Clinic Foundation, Cleveland, OH, United States; Cardiovascular Diseases, Mayo Clinic, Rochester, MN, United States; Medicine, NYU Grossman School of Medicine, New York, NY, United States; Div of Pulm and Crit Care, Johns Hopkins Univ School of Med, Baltimore, MD, United States; Weill Cornell Med Ctr, New York, NY, United States; Cardiovascular Medicine, Cleveland Clinic, Cleveland, OH, United States; Cardiovascular Medicine, Brigham and Women''s Hospital, Harvard Medical School, Boston, MA, United States; Division of Pulmonary and Critical Care, University of Arizona, Tucson, AZ, United States; Allergy, Pulmonary &amp; Critical Care, Vanderbilt University Medical Center, Nashville, TN, United States; </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385875440</t>
+          <t>https://openalex.org/W4367607364</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Advanced Hemodynamic and Cluster Analysis for Identifying Novel RV function subphenotypes in Patients with Pulmonary Hypertension</t>
+          <t>Relationship Between Hepatic Fat Content and Pulmonary Vascular Disease Severity in a Subset of the Pvdomics Cohort</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2023-08-15</t>
+          <t>2023-05-01</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>medRxiv (Cold Spring Harbor Laboratory)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Cold Spring Harbor Laboratory</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2023.08.09.23293912</t>
+          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a3741</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>cc-by-nc-nd</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2023.08.09.23293912</t>
+          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a3741</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -1578,57 +1578,57 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Mario Naranjo, Erika B. Rosenzweig, Anna R. Hemnes, Miriam Jacob, Ankit A. Desai, Nicholas S. Hill, A. Brett Larive, J. Emanuel Finet, Jane A. Leopold, Evelyn M. Horn, Robert P. Frantz, Franz Rischard, Serpil C. Erzurum, Gerald J. Beck, Stephen C. Mathai, Paul M. Hassoun</t>
+          <t>Alexandra M Janowski, Keeley Ravellette, Michael Insel, Joe G.N. Garcia, Franz Rischard, Rebecca Vanderpool</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Division of Pulmonary and Critical Care Medicine, Department of Medicine, Johns Hopkins University, Baltimore, Maryland, USA; Department of Pediatrics and Medicine, Columbia University, New York, New York, USA; Division of Allergy, Pulmonary and Critical Care Medicine, Vanderbilt University Medical Center, Nashville, Tennessee, USA; Department of Cardiovascular Medicine, Cleveland Clinic, Cleveland, Ohio, USA; Department of Medicine, College of Medicine, The University of Arizona, Tucson, Arizona, USA; Division of Pulmonary, Critical Care, and Sleep Medicine, Tufts Medical Center, Boston, Massachusetts, USA; Department of Quantitative Health Sciences, Cleveland Clinic, Cleveland, Ohio, USA; Department of Cardiovascular Medicine, Cleveland Clinic, Cleveland, Ohio, USA; Department of Cardiovascular Medicine, Brigham and Women's Hospital, Harvard University, Boston, Massachusetts, USA; Division of Cardiology, Weill Cornell University, New York, New York, USA; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA; Department of Medicine, College of Medicine, The University of Arizona, Tucson, Arizona, USA; Department of Inflammation and Immunity, Cleveland Clinic, Cleveland, Ohio, USA; Department of Quantitative Health Sciences, Cleveland Clinic, Cleveland, Ohio, USA; Division of Pulmonary and Critical Care Medicine, Department of Medicine, Johns Hopkins University, Baltimore, Maryland, USA; Division of Pulmonary and Critical Care Medicine, Department of Medicine, Johns Hopkins University, Baltimore, Maryland, USA</t>
+          <t>The Ohio State University; Division of Translational and Regenerative Medicine, The University of Arizona, Tucson, AZ; University of Arizona, UNITED STATES; University of Florida, UNITED STATES; University of Arizona, UNITED STATES; The Ohio State University</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386053295</t>
+          <t>https://openalex.org/W4385875440</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Frequency of acute vasodilator response (AVR) in incident and prevalent patients with pulmonary arterial hypertension: Results from the pulmonary vascular disease phenomics study</t>
+          <t>Advanced Hemodynamic and Cluster Analysis for Identifying Novel RV function subphenotypes in Patients with Pulmonary Hypertension</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-15</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Pulmonary circulation</t>
+          <t>medRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>SAGE Publishing</t>
+          <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/pul2.12281</t>
+          <t>https://doi.org/10.1101/2023.08.09.23293912</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>cc-by-nc</t>
+          <t>cc-by-nc-nd</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1648,12 +1648,12 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37614830</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/pul2.12281</t>
+          <t>https://doi.org/10.1101/2023.08.09.23293912</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -1665,47 +1665,47 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Divya Menon, Robert P. Frantz, Franz Rischard, PAUL M HASSOUN, Benjamin R. Gochanour, STEPHEN C MATHAI, NICHOLAS S HILL, ANNA R HEMNES, J. Emanuel Finet, Samar Farha, Gerald J. Beck, Kevin McCarthy, Mitchell A. Olman, Evelyn M. Horn, Gabriele Grünig, Serpil C. Erzurum, Barry A. Borlaug, Hilary M. DuBrock</t>
+          <t>Mario Naranjo, Erika B. Rosenzweig, Anna R. Hemnes, Miriam Jacob, Ankit A. Desai, Nicholas S. Hill, A. Brett Larive, J. Emanuel Finet, Jane A. Leopold, Evelyn M. Horn, Robert P. Frantz, Franz Rischard, Serpil C. Erzurum, Gerald J. Beck, Stephen C. Mathai, Paul M. Hassoun</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t>Division of Pulmonary and Critical Care Medicine, Department of Medicine, Johns Hopkins University, Baltimore, Maryland, USA; Department of Pediatrics and Medicine, Columbia University, New York, New York, USA; Division of Allergy, Pulmonary and Critical Care Medicine, Vanderbilt University Medical Center, Nashville, Tennessee, USA; Department of Cardiovascular Medicine, Cleveland Clinic, Cleveland, Ohio, USA; Department of Medicine, College of Medicine, The University of Arizona, Tucson, Arizona, USA; Division of Pulmonary, Critical Care, and Sleep Medicine, Tufts Medical Center, Boston, Massachusetts, USA; Department of Quantitative Health Sciences, Cleveland Clinic, Cleveland, Ohio, USA; Department of Cardiovascular Medicine, Cleveland Clinic, Cleveland, Ohio, USA; Department of Cardiovascular Medicine, Brigham and Women's Hospital, Harvard University, Boston, Massachusetts, USA; Division of Cardiology, Weill Cornell University, New York, New York, USA; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA; Department of Medicine, College of Medicine, The University of Arizona, Tucson, Arizona, USA; Department of Inflammation and Immunity, Cleveland Clinic, Cleveland, Ohio, USA; Department of Quantitative Health Sciences, Cleveland Clinic, Cleveland, Ohio, USA; Division of Pulmonary and Critical Care Medicine, Department of Medicine, Johns Hopkins University, Baltimore, Maryland, USA; Division of Pulmonary and Critical Care Medicine, Department of Medicine, Johns Hopkins University, Baltimore, Maryland, USA</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387265780</t>
+          <t>https://openalex.org/W4386053295</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>DIFFUSING CAPACITY FOR CARBON MONOXIDE IN PULMONARY VASCULAR DISEASE: INSIGHTS FROM THE PVDOMICS STUDY</t>
+          <t>Frequency of acute vasodilator response (AVR) in incident and prevalent patients with pulmonary arterial hypertension: Results from the pulmonary vascular disease phenomics study</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Chest</t>
+          <t>Pulmonary circulation</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>SAGE Publishing</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.chest.2023.07.3859</t>
+          <t>https://doi.org/10.1002/pul2.12281</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by-nc</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1735,12 +1735,12 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37614830</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.chest.2023.07.3859</t>
+          <t>https://doi.org/10.1002/pul2.12281</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -1752,22 +1752,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Ru‐San Tan, Deborah Kwon, Tushar Acharya, Margaret M. Park, Rebecca Vanderpool, Austin Katrynuik, Gerald J. Beck, Robert Frantz, PAUL M HASSOUN, ANNA R HEMNES, NICHOLAS S HILL, Evelyn M. Horn, Jane A. Leopold, Erika B. Rosenzweig, W.H. Wilson Tang, STEPHEN C MATHAI, Stefan L. Zimmerman, Bharath Ambale Venkatesh, Jiwon Kim, Michael P. DiLorenzo, Raymond Y. Kwong, Christopher J. François, EVAN BRITTAIN, Franz Rischard</t>
+          <t>Divya Menon, Robert P. Frantz, Franz Rischard, PAUL M HASSOUN, Benjamin R. Gochanour, STEPHEN C MATHAI, NICHOLAS S HILL, ANNA R HEMNES, J. Emanuel Finet, Samar Farha, Gerald J. Beck, Kevin McCarthy, Mitchell A. Olman, Evelyn M. Horn, Gabriele Grünig, Serpil C. Erzurum, Barry A. Borlaug, Hilary M. DuBrock</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387266294</t>
+          <t>https://openalex.org/W4387265780</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>RIGHT VENTRICULAR VOLUME INTER-READER VARIABILITY INCREASES WITH VENTRICULAR DILATION: RESULTS FROM THE PVDOMICS STUDY</t>
+          <t>DIFFUSING CAPACITY FOR CARBON MONOXIDE IN PULMONARY VASCULAR DISEASE: INSIGHTS FROM THE PVDOMICS STUDY</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.chest.2023.07.3810</t>
+          <t>https://doi.org/10.1016/j.chest.2023.07.3859</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.chest.2023.07.3810</t>
+          <t>https://doi.org/10.1016/j.chest.2023.07.3859</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -1839,42 +1839,42 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Cole Uhland, Allison Gibbs, Michael Insel, Saad Kubba, Franz Rischard</t>
+          <t>Ru‐San Tan, Deborah Kwon, Tushar Acharya, Margaret M. Park, Rebecca Vanderpool, Austin Katrynuik, Gerald J. Beck, Robert Frantz, PAUL M HASSOUN, ANNA R HEMNES, NICHOLAS S HILL, Evelyn M. Horn, Jane A. Leopold, Erika B. Rosenzweig, W.H. Wilson Tang, STEPHEN C MATHAI, Stefan L. Zimmerman, Bharath Ambale Venkatesh, Jiwon Kim, Michael P. DiLorenzo, Raymond Y. Kwong, Christopher J. François, EVAN BRITTAIN, Franz Rischard</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>University of Arizona Department of Medicine, Tucson, United States; Legacy Health System, Portland, United States; University of Arizona Division of Pulmonary Critical Care, Tucson, United States; University of Arizona Division of Cardiology, Tucson, United States; University of Arizona Division of Pulmonary Critical Care, Tucson, United States</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387980245</t>
+          <t>https://openalex.org/W4387266294</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Methamphetamine and idiopathic PAH: Similar treatment, similar outcomes</t>
+          <t>RIGHT VENTRICULAR VOLUME INTER-READER VARIABILITY INCREASES WITH VENTRICULAR DILATION: RESULTS FROM THE PVDOMICS STUDY</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2023-09-09</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Chest</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1183/13993003.congress-2023.pa1204</t>
+          <t>https://doi.org/10.1016/j.chest.2023.07.3810</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1884,12 +1884,12 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1914,7 +1914,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1183/13993003.congress-2023.pa1204</t>
+          <t>https://doi.org/10.1016/j.chest.2023.07.3810</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -1926,32 +1926,32 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Alexandra M Janowski, Keeley Ravellette, Michael Insel, Joe G.N. Garcia, Franz Rischard, Rebecca Vanderpool</t>
+          <t>Divya Menon, Robert Frantz, Franz Rischard, PAUL M HASSOUN, Benjamin R. Gochanour, STEPHEN C MATHAI, NICHOLAS S HILL, ANNA R HEMNES, J. Emanuel Finet, Jason K. Lempel, Samar Farha, AARON B WAXMAN, Evelyn M. Horn, Rahul D. Renapurkar, Gabriele Grünig, Serpil C. Erzurum, Barry A. Borlaug, Hilary M. DuBrock</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Department of Biomedical Engineering, The Ohio State University, Columbus, OH; Division of Cardiovascular Medicine, The Ohio State University, Columbus, OH; Division of Translational and Regenerative Medicine, The University of Arizona, Tucson, AZ; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona, Tucson, AZ; Center for Inflammation Science and Systems Medicine, University of Florida; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona, Tucson, AZ; Department of Biomedical Engineering, The Ohio State University, Columbus, OH; Division of Cardiovascular Medicine, The Ohio State University, Columbus, OH</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4390064662</t>
+          <t>https://openalex.org/W4387267800</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Advanced Hemodynamic and Cluster Analysis for Identifying Novel RV function subphenotypes in Patients with Pulmonary Hypertension</t>
+          <t>GROUND-GLASS OPACITIES IN GROUP 1 PULMONARY HYPERTENSION: FINDINGS FROM THE PVDOMICS STUDY</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2023-12-01</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>The Journal of Heart and Lung Transplantation</t>
+          <t>Chest</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.healun.2023.12.009</t>
+          <t>https://doi.org/10.1016/j.chest.2023.07.3862</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1971,12 +1971,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1996,12 +1996,12 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/38141893</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.healun.2023.12.009</t>
+          <t>https://doi.org/10.1016/j.chest.2023.07.3862</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -2013,57 +2013,57 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Jordan Elliott, Nainika Menakuru, Kellan Juliet Martin, Farbod Rahaghi, Franz Rischard, Rebecca Vanderpool</t>
+          <t>Carol Simpson, A.S. Ambade, Robert Harlan, Aurelie Roux, Susan Aja, David R. Graham, Ami A. Shah, Laura K. Hummers, Anna R. Hemnes, Jane A. Leopold, Evelyn M. Horn, Erika B. Rosenzweig, Gabrielle Grunig, Micheala A. Aldred, John Barnard, Suzy Comhair, W.H. Wilson Tang, Megan Griffiths, Franz Rischard, Robert P. Frantz, Serpil C. Erzurum, Gerald J. Beck, Nicholas S. Hill, Stephen C. Mathai, Paul M. Hassoun, Rachel Damico</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> University of Arizona, UNITED STATES;;  University of Arizona, UNITED STATES;; Division of Translational and Regenerative Medicine, University of Arizona;  Brigham and Women's Hospital, Harvard School of Medicine, UNITED STATES;;  University of Arizona, UNITED STATES;; Division of Cardiovascular Medicine, College of Medicine, Ohio State University; Division of Translational and Regenerative Medicine, University of Arizona</t>
+          <t>Pulmonary and Critical Care Medicine, Johns Hopkins University, Baltimore, MD, United States; Division of Pulmonary and Critical Care Medicine, Johns Hopkins University, Baltimore, MD, United States.; Molecular Determinants Core, Johns Hopkins All Children's Hospital, St. Petersburg, FL, United States.; Molecular Determinants Core, Johns Hopkins All Children's Hospital, St. Petersburg, FL, United States.; Johns Hopkins University, Baltimore, MD, United States.; Pharmacology and Molecular Sciences, Johns Hopkins University, Baltimore, MD, United States.; Division of Rheumatology, Johns Hopkins University, Baltimore, MD, United States.; Division of Rheumatology, Johns Hopkins University, Baltimore, MD, United States.; Medicine, Vanderbilt University, Nashville, TN, United States.; Cardiology, Brigham and Women's Hospital, Boston, MA, United States.; Cornell University, Ithaca, NY, United States.; Columbia University, New York, NY, United States.; New York University, New York, NY, United States.; Indiana University School of Medicine, Indianapolis, IN, United States.; Lerner Research Institute, Cleveland Clinic, Cleveland, OH, United States.; Department of Inflammation and Immunity, Cleveland Clinic, Cleveland, OH, United States.; Department of Cardiovascular &amp; Metabolic Sciences, Cleveland Clinic, Cleveland, OH, United States.; Division of Pediatric Cardiology, The University of Texas Southwestern Medical Center, Dallas, TX, United States.; University of Arizona, Tucson, AZ, United States.; Mayo Clinic, Rochester, MN, United States.; Department of Inflammation and Immunity, Cleveland Clinic, Cleveland, OH, United States.; Quantitative Health Sciences, Cleveland Clinic, Cleveland, OH, United States.; Medicine, Tufts Medical Center, Boston, MA, United States.; Medicine, Johns Hopkins University, Baltimore, MD, United States.; Medicine, Johns Hopkins University, Baltimore, MD, United States.; Johns Hopkins Hospital, Baltimore, MD, United States.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4321598368</t>
+          <t>https://openalex.org/W4387296302</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>iCPET calculator: a web-based application to standardize the calculation of alpha distensibility in patients with pulmonary arterial hypertension</t>
+          <t>Kynurenine pathway metabolism evolves with development of preclinical and scleroderma-associated pulmonary arterial hypertension</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2023-02-22</t>
+          <t>2023-11-01</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>medRxiv (Cold Spring Harbor Laboratory)</t>
+          <t>American Journal of Physiology-lung Cellular and Molecular Physiology</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Cold Spring Harbor Laboratory</t>
+          <t>American Physical Society</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2023.02.21.23286277</t>
+          <t>https://doi.org/10.1152/ajplung.00177.2023</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>cc-by-nc-nd</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37786941</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2023.02.21.23286277</t>
+          <t>https://doi.org/10.1152/ajplung.00177.2023</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -2100,42 +2100,42 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Divya Menon, Robert Frantz, Franz Rischard, PAUL M HASSOUN, Benjamin R. Gochanour, STEPHEN C MATHAI, NICHOLAS S HILL, ANNA R HEMNES, J. Emanuel Finet, Jason K. Lempel, Samar Farha, AARON B WAXMAN, Evelyn M. Horn, Rahul D. Renapurkar, Gabriele Grünig, Serpil C. Erzurum, Barry A. Borlaug, Hilary M. DuBrock</t>
+          <t>Cole Uhland, Allison Gibbs, Michael Insel, Saad Kubba, Franz Rischard</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t>University of Arizona Department of Medicine, Tucson, United States; Legacy Health System, Portland, United States; University of Arizona Division of Pulmonary Critical Care, Tucson, United States; University of Arizona Division of Cardiology, Tucson, United States; University of Arizona Division of Pulmonary Critical Care, Tucson, United States</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387267800</t>
+          <t>https://openalex.org/W4387980245</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>GROUND-GLASS OPACITIES IN GROUP 1 PULMONARY HYPERTENSION: FINDINGS FROM THE PVDOMICS STUDY</t>
+          <t>Methamphetamine and idiopathic PAH: Similar treatment, similar outcomes</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>2023-09-09</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Chest</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.chest.2023.07.3862</t>
+          <t>https://doi.org/10.1183/13993003.congress-2023.pa1204</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2145,12 +2145,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.chest.2023.07.3862</t>
+          <t>https://doi.org/10.1183/13993003.congress-2023.pa1204</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -2187,42 +2187,42 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Carol Simpson, A.S. Ambade, Robert Harlan, Aurelie Roux, Susan Aja, David R. Graham, Ami A. Shah, Laura K. Hummers, Anna R. Hemnes, Jane A. Leopold, Evelyn M. Horn, Erika B. Rosenzweig, Gabrielle Grunig, Micheala A. Aldred, John Barnard, Suzy Comhair, W.H. Wilson Tang, Megan Griffiths, Franz Rischard, Robert P. Frantz, Serpil C. Erzurum, Gerald J. Beck, Nicholas S. Hill, Stephen C. Mathai, Paul M. Hassoun, Rachel Damico</t>
+          <t>Alexandra M Janowski, Keeley Ravellette, Michael Insel, Joe G.N. Garcia, Franz Rischard, Rebecca Vanderpool</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Pulmonary and Critical Care Medicine, Johns Hopkins University, Baltimore, MD, United States; Division of Pulmonary and Critical Care Medicine, Johns Hopkins University, Baltimore, MD, United States.; Molecular Determinants Core, Johns Hopkins All Children's Hospital, St. Petersburg, FL, United States.; Molecular Determinants Core, Johns Hopkins All Children's Hospital, St. Petersburg, FL, United States.; Johns Hopkins University, Baltimore, MD, United States.; Pharmacology and Molecular Sciences, Johns Hopkins University, Baltimore, MD, United States.; Division of Rheumatology, Johns Hopkins University, Baltimore, MD, United States.; Division of Rheumatology, Johns Hopkins University, Baltimore, MD, United States.; Medicine, Vanderbilt University, Nashville, TN, United States.; Cardiology, Brigham and Women's Hospital, Boston, MA, United States.; Cornell University, Ithaca, NY, United States.; Columbia University, New York, NY, United States.; New York University, New York, NY, United States.; Indiana University School of Medicine, Indianapolis, IN, United States.; Lerner Research Institute, Cleveland Clinic, Cleveland, OH, United States.; Department of Inflammation and Immunity, Cleveland Clinic, Cleveland, OH, United States.; Department of Cardiovascular &amp; Metabolic Sciences, Cleveland Clinic, Cleveland, OH, United States.; Division of Pediatric Cardiology, The University of Texas Southwestern Medical Center, Dallas, TX, United States.; University of Arizona, Tucson, AZ, United States.; Mayo Clinic, Rochester, MN, United States.; Department of Inflammation and Immunity, Cleveland Clinic, Cleveland, OH, United States.; Quantitative Health Sciences, Cleveland Clinic, Cleveland, OH, United States.; Medicine, Tufts Medical Center, Boston, MA, United States.; Medicine, Johns Hopkins University, Baltimore, MD, United States.; Medicine, Johns Hopkins University, Baltimore, MD, United States.; Johns Hopkins Hospital, Baltimore, MD, United States.</t>
+          <t>Department of Biomedical Engineering, The Ohio State University, Columbus, OH; Division of Cardiovascular Medicine, The Ohio State University, Columbus, OH; Division of Translational and Regenerative Medicine, The University of Arizona, Tucson, AZ; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona, Tucson, AZ; Center for Inflammation Science and Systems Medicine, University of Florida; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona, Tucson, AZ; Department of Biomedical Engineering, The Ohio State University, Columbus, OH; Division of Cardiovascular Medicine, The Ohio State University, Columbus, OH</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387296302</t>
+          <t>https://openalex.org/W4390064662</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Kynurenine pathway metabolism evolves with development of preclinical and scleroderma-associated pulmonary arterial hypertension</t>
+          <t>Advanced Hemodynamic and Cluster Analysis for Identifying Novel RV function subphenotypes in Patients with Pulmonary Hypertension</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2023-11-01</t>
+          <t>2023-12-01</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>American Journal of Physiology-lung Cellular and Molecular Physiology</t>
+          <t>The Journal of Heart and Lung Transplantation</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>American Physical Society</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1152/ajplung.00177.2023</t>
+          <t>https://doi.org/10.1016/j.healun.2023.12.009</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2257,12 +2257,12 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37786941</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/38141893</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1152/ajplung.00177.2023</t>
+          <t>https://doi.org/10.1016/j.healun.2023.12.009</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
